--- a/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.25498542084837</v>
+        <v>21.25498542084838</v>
       </c>
       <c r="C2">
-        <v>14.90343395754799</v>
+        <v>14.90343395754789</v>
       </c>
       <c r="D2">
-        <v>9.572563342114057</v>
+        <v>9.572563342114075</v>
       </c>
       <c r="E2">
-        <v>19.0722439545196</v>
+        <v>19.07224395451951</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.95193595597548</v>
+        <v>63.9519359559751</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.51146103493479</v>
+        <v>10.51146103493469</v>
       </c>
       <c r="J2">
-        <v>18.83435099243688</v>
+        <v>18.83435099243689</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.57712617877493</v>
+        <v>19.57712617877488</v>
       </c>
       <c r="C3">
-        <v>13.69337806972273</v>
+        <v>13.69337806972271</v>
       </c>
       <c r="D3">
-        <v>8.934299032515609</v>
+        <v>8.934299032515645</v>
       </c>
       <c r="E3">
         <v>17.58581524639061</v>
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.81322406234992</v>
+        <v>59.81322406234975</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.738562000649319</v>
+        <v>9.738562000649283</v>
       </c>
       <c r="J3">
-        <v>17.35293383937139</v>
+        <v>17.35293383937129</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.51355981213694</v>
+        <v>18.51355981213706</v>
       </c>
       <c r="C4">
-        <v>12.92937855451074</v>
+        <v>12.92937855451076</v>
       </c>
       <c r="D4">
         <v>8.535562549887791</v>
       </c>
       <c r="E4">
-        <v>16.64234531473501</v>
+        <v>16.6423453147351</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.249048851754011</v>
+        <v>9.249048851754047</v>
       </c>
       <c r="J4">
-        <v>16.41339680172502</v>
+        <v>16.41339680172516</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.07115529130155</v>
+        <v>18.07115529130157</v>
       </c>
       <c r="C5">
-        <v>12.61218943018515</v>
+        <v>12.61218943018523</v>
       </c>
       <c r="D5">
-        <v>8.371280064179604</v>
+        <v>8.371280064179636</v>
       </c>
       <c r="E5">
         <v>16.24955542242308</v>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.13359163854687</v>
+        <v>56.13359163854702</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.045509590696312</v>
+        <v>9.045509590696303</v>
       </c>
       <c r="J5">
-        <v>16.02239492850105</v>
+        <v>16.02239492850111</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.99713550742869</v>
+        <v>17.99713550742866</v>
       </c>
       <c r="C6">
-        <v>12.55915186299409</v>
+        <v>12.55915186299416</v>
       </c>
       <c r="D6">
-        <v>8.343891808159023</v>
+        <v>8.343891808159025</v>
       </c>
       <c r="E6">
-        <v>16.18381536835464</v>
+        <v>16.18381536835459</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.9537854308815</v>
+        <v>55.95378543088157</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.011459108698828</v>
+        <v>9.01145910869889</v>
       </c>
       <c r="J6">
-        <v>15.95696208723915</v>
+        <v>15.95696208723916</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.50763052516668</v>
+        <v>18.50763052516665</v>
       </c>
       <c r="C7">
-        <v>12.92512522047842</v>
+        <v>12.9251252204783</v>
       </c>
       <c r="D7">
-        <v>8.533354293624745</v>
+        <v>8.533354293624729</v>
       </c>
       <c r="E7">
-        <v>16.63708239070528</v>
+        <v>16.63708239070521</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.19599790179611</v>
+        <v>57.19599790179593</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.246320643023111</v>
+        <v>9.246320643023054</v>
       </c>
       <c r="J7">
-        <v>16.40815728080546</v>
+        <v>16.40815728080536</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68298282124433</v>
+        <v>20.68298282124429</v>
       </c>
       <c r="C8">
-        <v>14.49020002483562</v>
+        <v>14.49020002483575</v>
       </c>
       <c r="D8">
-        <v>9.353843507086246</v>
+        <v>9.353843507086241</v>
       </c>
       <c r="E8">
-        <v>18.56574090727839</v>
+        <v>18.56574090727835</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.53714087998088</v>
+        <v>62.53714087998096</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.24787131778482</v>
+        <v>10.24787131778481</v>
       </c>
       <c r="J8">
-        <v>18.32938034420862</v>
+        <v>18.32938034420858</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.71831447450126</v>
+        <v>24.71831447450138</v>
       </c>
       <c r="C9">
         <v>17.42368040397721</v>
       </c>
       <c r="D9">
-        <v>11.06859540975133</v>
+        <v>11.06859540975128</v>
       </c>
       <c r="E9">
-        <v>22.13508143816264</v>
+        <v>22.13508143816259</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.57612211002977</v>
+        <v>72.57612211002996</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.1101073638876</v>
+        <v>12.11010736388762</v>
       </c>
       <c r="J9">
         <v>21.89229242409257</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.60417290889328</v>
+        <v>27.60417290889296</v>
       </c>
       <c r="C10">
-        <v>19.55171174265716</v>
+        <v>19.55171174265712</v>
       </c>
       <c r="D10">
-        <v>12.31545500111654</v>
+        <v>12.31545500111649</v>
       </c>
       <c r="E10">
-        <v>24.68411228143022</v>
+        <v>24.68411228143</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.79960736195335</v>
+        <v>79.79960736195194</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.44668338120879</v>
+        <v>13.44668338120865</v>
       </c>
       <c r="J10">
-        <v>24.44357520460098</v>
+        <v>24.44357520460066</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.91942496111523</v>
+        <v>28.91942496111514</v>
       </c>
       <c r="C11">
-        <v>20.5313620728303</v>
+        <v>20.53136207283003</v>
       </c>
       <c r="D11">
-        <v>12.88060503761521</v>
+        <v>12.88060503761506</v>
       </c>
       <c r="E11">
-        <v>25.84553668411158</v>
+        <v>25.84553668411144</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.09236921527932</v>
+        <v>83.09236921527865</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.05757894991239</v>
+        <v>14.05757894991241</v>
       </c>
       <c r="J11">
-        <v>25.60803562677767</v>
+        <v>25.60803562677754</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.42012008712878</v>
+        <v>29.4201200871285</v>
       </c>
       <c r="C12">
-        <v>20.90604482865592</v>
+        <v>20.90604482865568</v>
       </c>
       <c r="D12">
-        <v>13.09521053313654</v>
+        <v>13.09521053313632</v>
       </c>
       <c r="E12">
-        <v>26.28768444076626</v>
+        <v>26.28768444076612</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.34505895934228</v>
+        <v>84.34505895934133</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>14.2904711417618</v>
       </c>
       <c r="J12">
-        <v>26.05166960822643</v>
+        <v>26.05166960822616</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.31212463668808</v>
+        <v>29.31212463668814</v>
       </c>
       <c r="C13">
-        <v>20.82514534898285</v>
+        <v>20.82514534898287</v>
       </c>
       <c r="D13">
-        <v>13.04894760093959</v>
+        <v>13.04894760093956</v>
       </c>
       <c r="E13">
-        <v>26.19231540751121</v>
+        <v>26.19231540751119</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>84.0749171658459</v>
+        <v>84.07491716584551</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.24022188719337</v>
+        <v>14.24022188719336</v>
       </c>
       <c r="J13">
         <v>25.9559647117009</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.96054884491927</v>
+        <v>28.9605488449192</v>
       </c>
       <c r="C14">
-        <v>20.56209899538024</v>
+        <v>20.56209899538011</v>
       </c>
       <c r="D14">
-        <v>12.89824269859701</v>
+        <v>12.89824269859711</v>
       </c>
       <c r="E14">
-        <v>25.88185120170209</v>
+        <v>25.88185120170222</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.19527906443821</v>
+        <v>83.19527906443817</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.07669995485347</v>
+        <v>14.07669995485354</v>
       </c>
       <c r="J14">
-        <v>25.64446538208657</v>
+        <v>25.64446538208652</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.74562233344384</v>
+        <v>28.74562233344383</v>
       </c>
       <c r="C15">
-        <v>20.40153059032041</v>
+        <v>20.40153059032032</v>
       </c>
       <c r="D15">
-        <v>12.80604040713281</v>
+        <v>12.80604040713284</v>
       </c>
       <c r="E15">
-        <v>25.69206087110573</v>
+        <v>25.6920608711057</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.65740095268073</v>
+        <v>82.65740095268062</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>13.97678153023637</v>
       </c>
       <c r="J15">
-        <v>25.45408633190481</v>
+        <v>25.45408633190475</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.51844702613003</v>
+        <v>27.5184470261302</v>
       </c>
       <c r="C16">
-        <v>19.4880830843239</v>
+        <v>19.48808308432391</v>
       </c>
       <c r="D16">
-        <v>12.27854983579783</v>
+        <v>12.27854983579797</v>
       </c>
       <c r="E16">
-        <v>24.60841071582639</v>
+        <v>24.60841071582653</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.58492995067979</v>
+        <v>79.58492995067975</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.40690765460982</v>
+        <v>13.40690765460988</v>
       </c>
       <c r="J16">
-        <v>24.36771962697224</v>
+        <v>24.36771962697239</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.76766031062371</v>
+        <v>26.76766031062346</v>
       </c>
       <c r="C17">
-        <v>18.93194842604323</v>
+        <v>18.93194842604337</v>
       </c>
       <c r="D17">
         <v>11.95497842587131</v>
       </c>
       <c r="E17">
-        <v>23.9453867015121</v>
+        <v>23.94538670151201</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.70475460727394</v>
+        <v>77.70475460727344</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.05875353770265</v>
+        <v>13.05875353770256</v>
       </c>
       <c r="J17">
-        <v>23.70357628596709</v>
+        <v>23.70357628596697</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.33588913190064</v>
+        <v>26.33588913190077</v>
       </c>
       <c r="C18">
-        <v>18.61301400581019</v>
+        <v>18.61301400581037</v>
       </c>
       <c r="D18">
-        <v>11.76860929066922</v>
+        <v>11.76860929066916</v>
       </c>
       <c r="E18">
-        <v>23.56405309971908</v>
+        <v>23.56405309971911</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.62359874047141</v>
+        <v>76.62359874047169</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.85869002166465</v>
+        <v>12.85869002166468</v>
       </c>
       <c r="J18">
-        <v>23.32178507392893</v>
+        <v>23.32178507392905</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.18965073820447</v>
+        <v>26.18965073820446</v>
       </c>
       <c r="C19">
-        <v>18.50513723493851</v>
+        <v>18.50513723493842</v>
       </c>
       <c r="D19">
-        <v>11.70544043702669</v>
+        <v>11.70544043702682</v>
       </c>
       <c r="E19">
-        <v>23.43489036128289</v>
+        <v>23.43489036128296</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.25746245100376</v>
+        <v>76.2574624510041</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.79095453282449</v>
+        <v>12.79095453282448</v>
       </c>
       <c r="J19">
-        <v>23.19249802254112</v>
+        <v>23.19249802254111</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.84756214186636</v>
+        <v>26.84756214186638</v>
       </c>
       <c r="C20">
-        <v>18.9910398614901</v>
+        <v>18.99103986149</v>
       </c>
       <c r="D20">
-        <v>11.98944440628719</v>
+        <v>11.98944440628713</v>
       </c>
       <c r="E20">
-        <v>24.015951635512</v>
+        <v>24.01595163551202</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.90484449240009</v>
+        <v>77.90484449240016</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.09578877601951</v>
+        <v>13.09578877601963</v>
       </c>
       <c r="J20">
-        <v>23.77424077815934</v>
+        <v>23.77424077815932</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.06372167997772</v>
+        <v>29.06372167997782</v>
       </c>
       <c r="C21">
-        <v>20.63924177336837</v>
+        <v>20.63924177336845</v>
       </c>
       <c r="D21">
-        <v>12.94248369105473</v>
+        <v>12.94248369105465</v>
       </c>
       <c r="E21">
-        <v>25.97295858930089</v>
+        <v>25.97295858930088</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.45344612339123</v>
+        <v>83.45344612339258</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.12467696043475</v>
+        <v>14.12467696043474</v>
       </c>
       <c r="J21">
-        <v>25.7358672733268</v>
+        <v>25.73586727332698</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.52915080467063</v>
+        <v>30.52915080467053</v>
       </c>
       <c r="C22">
-        <v>21.73955787013494</v>
+        <v>21.73955787013488</v>
       </c>
       <c r="D22">
-        <v>13.56946811924123</v>
+        <v>13.56946811924115</v>
       </c>
       <c r="E22">
-        <v>27.26714273142638</v>
+        <v>27.26714273142633</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>87.11713600672748</v>
+        <v>87.11713600672671</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.80704716028051</v>
+        <v>14.80704716028048</v>
       </c>
       <c r="J22">
-        <v>27.03505793786772</v>
+        <v>27.03505793786768</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.74449798739839</v>
+        <v>29.74449798739827</v>
       </c>
       <c r="C23">
-        <v>21.14931738244614</v>
+        <v>21.1493173824458</v>
       </c>
       <c r="D23">
-        <v>13.23408181599911</v>
+        <v>13.23408181599893</v>
       </c>
       <c r="E23">
-        <v>26.57414492261726</v>
+        <v>26.57414492261705</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.15626908629386</v>
+        <v>85.15626908629275</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.44145718543882</v>
+        <v>14.44145718543872</v>
       </c>
       <c r="J23">
-        <v>26.33918921155291</v>
+        <v>26.33918921155269</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.81143910262396</v>
+        <v>26.81143910262387</v>
       </c>
       <c r="C24">
-        <v>18.96432229235671</v>
+        <v>18.9643222923568</v>
       </c>
       <c r="D24">
-        <v>11.97386346990657</v>
+        <v>11.97386346990662</v>
       </c>
       <c r="E24">
-        <v>23.98404984980176</v>
+        <v>23.98404984980171</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.81438487404934</v>
+        <v>77.8143848740493</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>13.07904492998477</v>
       </c>
       <c r="J24">
-        <v>23.74229340664487</v>
+        <v>23.74229340664485</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.64585516996895</v>
+        <v>23.64585516996904</v>
       </c>
       <c r="C25">
-        <v>16.63966159953481</v>
+        <v>16.63966159953448</v>
       </c>
       <c r="D25">
-        <v>10.60295612089349</v>
+        <v>10.60295612089363</v>
       </c>
       <c r="E25">
-        <v>21.18722768338193</v>
+        <v>21.18722768338201</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.89746613081967</v>
+        <v>69.89746613081982</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.61452280591269</v>
+        <v>11.61452280591262</v>
       </c>
       <c r="J25">
-        <v>20.94510759288761</v>
+        <v>20.94510759288764</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.25498542084838</v>
+        <v>21.25498542084837</v>
       </c>
       <c r="C2">
-        <v>14.90343395754789</v>
+        <v>14.90343395754799</v>
       </c>
       <c r="D2">
-        <v>9.572563342114075</v>
+        <v>9.572563342114057</v>
       </c>
       <c r="E2">
-        <v>19.07224395451951</v>
+        <v>19.0722439545196</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.9519359559751</v>
+        <v>63.95193595597548</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.51146103493469</v>
+        <v>10.51146103493479</v>
       </c>
       <c r="J2">
-        <v>18.83435099243689</v>
+        <v>18.83435099243688</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.57712617877488</v>
+        <v>19.57712617877493</v>
       </c>
       <c r="C3">
-        <v>13.69337806972271</v>
+        <v>13.69337806972273</v>
       </c>
       <c r="D3">
-        <v>8.934299032515645</v>
+        <v>8.934299032515609</v>
       </c>
       <c r="E3">
         <v>17.58581524639061</v>
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.81322406234975</v>
+        <v>59.81322406234992</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.738562000649283</v>
+        <v>9.738562000649319</v>
       </c>
       <c r="J3">
-        <v>17.35293383937129</v>
+        <v>17.35293383937139</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.51355981213706</v>
+        <v>18.51355981213694</v>
       </c>
       <c r="C4">
-        <v>12.92937855451076</v>
+        <v>12.92937855451074</v>
       </c>
       <c r="D4">
         <v>8.535562549887791</v>
       </c>
       <c r="E4">
-        <v>16.6423453147351</v>
+        <v>16.64234531473501</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.249048851754047</v>
+        <v>9.249048851754011</v>
       </c>
       <c r="J4">
-        <v>16.41339680172516</v>
+        <v>16.41339680172502</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.07115529130157</v>
+        <v>18.07115529130155</v>
       </c>
       <c r="C5">
-        <v>12.61218943018523</v>
+        <v>12.61218943018515</v>
       </c>
       <c r="D5">
-        <v>8.371280064179636</v>
+        <v>8.371280064179604</v>
       </c>
       <c r="E5">
         <v>16.24955542242308</v>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.13359163854702</v>
+        <v>56.13359163854687</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.045509590696303</v>
+        <v>9.045509590696312</v>
       </c>
       <c r="J5">
-        <v>16.02239492850111</v>
+        <v>16.02239492850105</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.99713550742866</v>
+        <v>17.99713550742869</v>
       </c>
       <c r="C6">
-        <v>12.55915186299416</v>
+        <v>12.55915186299409</v>
       </c>
       <c r="D6">
-        <v>8.343891808159025</v>
+        <v>8.343891808159023</v>
       </c>
       <c r="E6">
-        <v>16.18381536835459</v>
+        <v>16.18381536835464</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.95378543088157</v>
+        <v>55.9537854308815</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.01145910869889</v>
+        <v>9.011459108698828</v>
       </c>
       <c r="J6">
-        <v>15.95696208723916</v>
+        <v>15.95696208723915</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.50763052516665</v>
+        <v>18.50763052516668</v>
       </c>
       <c r="C7">
-        <v>12.9251252204783</v>
+        <v>12.92512522047842</v>
       </c>
       <c r="D7">
-        <v>8.533354293624729</v>
+        <v>8.533354293624745</v>
       </c>
       <c r="E7">
-        <v>16.63708239070521</v>
+        <v>16.63708239070528</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.19599790179593</v>
+        <v>57.19599790179611</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.246320643023054</v>
+        <v>9.246320643023111</v>
       </c>
       <c r="J7">
-        <v>16.40815728080536</v>
+        <v>16.40815728080546</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68298282124429</v>
+        <v>20.68298282124433</v>
       </c>
       <c r="C8">
-        <v>14.49020002483575</v>
+        <v>14.49020002483562</v>
       </c>
       <c r="D8">
-        <v>9.353843507086241</v>
+        <v>9.353843507086246</v>
       </c>
       <c r="E8">
-        <v>18.56574090727835</v>
+        <v>18.56574090727839</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.53714087998096</v>
+        <v>62.53714087998088</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.24787131778481</v>
+        <v>10.24787131778482</v>
       </c>
       <c r="J8">
-        <v>18.32938034420858</v>
+        <v>18.32938034420862</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.71831447450138</v>
+        <v>24.71831447450126</v>
       </c>
       <c r="C9">
         <v>17.42368040397721</v>
       </c>
       <c r="D9">
-        <v>11.06859540975128</v>
+        <v>11.06859540975133</v>
       </c>
       <c r="E9">
-        <v>22.13508143816259</v>
+        <v>22.13508143816264</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.57612211002996</v>
+        <v>72.57612211002977</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.11010736388762</v>
+        <v>12.1101073638876</v>
       </c>
       <c r="J9">
         <v>21.89229242409257</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.60417290889296</v>
+        <v>27.60417290889328</v>
       </c>
       <c r="C10">
-        <v>19.55171174265712</v>
+        <v>19.55171174265716</v>
       </c>
       <c r="D10">
-        <v>12.31545500111649</v>
+        <v>12.31545500111654</v>
       </c>
       <c r="E10">
-        <v>24.68411228143</v>
+        <v>24.68411228143022</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.79960736195194</v>
+        <v>79.79960736195335</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.44668338120865</v>
+        <v>13.44668338120879</v>
       </c>
       <c r="J10">
-        <v>24.44357520460066</v>
+        <v>24.44357520460098</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.91942496111514</v>
+        <v>28.91942496111523</v>
       </c>
       <c r="C11">
-        <v>20.53136207283003</v>
+        <v>20.5313620728303</v>
       </c>
       <c r="D11">
-        <v>12.88060503761506</v>
+        <v>12.88060503761521</v>
       </c>
       <c r="E11">
-        <v>25.84553668411144</v>
+        <v>25.84553668411158</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.09236921527865</v>
+        <v>83.09236921527932</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.05757894991241</v>
+        <v>14.05757894991239</v>
       </c>
       <c r="J11">
-        <v>25.60803562677754</v>
+        <v>25.60803562677767</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.4201200871285</v>
+        <v>29.42012008712878</v>
       </c>
       <c r="C12">
-        <v>20.90604482865568</v>
+        <v>20.90604482865592</v>
       </c>
       <c r="D12">
-        <v>13.09521053313632</v>
+        <v>13.09521053313654</v>
       </c>
       <c r="E12">
-        <v>26.28768444076612</v>
+        <v>26.28768444076626</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.34505895934133</v>
+        <v>84.34505895934228</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>14.2904711417618</v>
       </c>
       <c r="J12">
-        <v>26.05166960822616</v>
+        <v>26.05166960822643</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.31212463668814</v>
+        <v>29.31212463668808</v>
       </c>
       <c r="C13">
-        <v>20.82514534898287</v>
+        <v>20.82514534898285</v>
       </c>
       <c r="D13">
-        <v>13.04894760093956</v>
+        <v>13.04894760093959</v>
       </c>
       <c r="E13">
-        <v>26.19231540751119</v>
+        <v>26.19231540751121</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>84.07491716584551</v>
+        <v>84.0749171658459</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.24022188719336</v>
+        <v>14.24022188719337</v>
       </c>
       <c r="J13">
         <v>25.9559647117009</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.9605488449192</v>
+        <v>28.96054884491927</v>
       </c>
       <c r="C14">
-        <v>20.56209899538011</v>
+        <v>20.56209899538024</v>
       </c>
       <c r="D14">
-        <v>12.89824269859711</v>
+        <v>12.89824269859701</v>
       </c>
       <c r="E14">
-        <v>25.88185120170222</v>
+        <v>25.88185120170209</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.19527906443817</v>
+        <v>83.19527906443821</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.07669995485354</v>
+        <v>14.07669995485347</v>
       </c>
       <c r="J14">
-        <v>25.64446538208652</v>
+        <v>25.64446538208657</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.74562233344383</v>
+        <v>28.74562233344384</v>
       </c>
       <c r="C15">
-        <v>20.40153059032032</v>
+        <v>20.40153059032041</v>
       </c>
       <c r="D15">
-        <v>12.80604040713284</v>
+        <v>12.80604040713281</v>
       </c>
       <c r="E15">
-        <v>25.6920608711057</v>
+        <v>25.69206087110573</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.65740095268062</v>
+        <v>82.65740095268073</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>13.97678153023637</v>
       </c>
       <c r="J15">
-        <v>25.45408633190475</v>
+        <v>25.45408633190481</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.5184470261302</v>
+        <v>27.51844702613003</v>
       </c>
       <c r="C16">
-        <v>19.48808308432391</v>
+        <v>19.4880830843239</v>
       </c>
       <c r="D16">
-        <v>12.27854983579797</v>
+        <v>12.27854983579783</v>
       </c>
       <c r="E16">
-        <v>24.60841071582653</v>
+        <v>24.60841071582639</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.58492995067975</v>
+        <v>79.58492995067979</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.40690765460988</v>
+        <v>13.40690765460982</v>
       </c>
       <c r="J16">
-        <v>24.36771962697239</v>
+        <v>24.36771962697224</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.76766031062346</v>
+        <v>26.76766031062371</v>
       </c>
       <c r="C17">
-        <v>18.93194842604337</v>
+        <v>18.93194842604323</v>
       </c>
       <c r="D17">
         <v>11.95497842587131</v>
       </c>
       <c r="E17">
-        <v>23.94538670151201</v>
+        <v>23.9453867015121</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.70475460727344</v>
+        <v>77.70475460727394</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.05875353770256</v>
+        <v>13.05875353770265</v>
       </c>
       <c r="J17">
-        <v>23.70357628596697</v>
+        <v>23.70357628596709</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.33588913190077</v>
+        <v>26.33588913190064</v>
       </c>
       <c r="C18">
-        <v>18.61301400581037</v>
+        <v>18.61301400581019</v>
       </c>
       <c r="D18">
-        <v>11.76860929066916</v>
+        <v>11.76860929066922</v>
       </c>
       <c r="E18">
-        <v>23.56405309971911</v>
+        <v>23.56405309971908</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.62359874047169</v>
+        <v>76.62359874047141</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.85869002166468</v>
+        <v>12.85869002166465</v>
       </c>
       <c r="J18">
-        <v>23.32178507392905</v>
+        <v>23.32178507392893</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.18965073820446</v>
+        <v>26.18965073820447</v>
       </c>
       <c r="C19">
-        <v>18.50513723493842</v>
+        <v>18.50513723493851</v>
       </c>
       <c r="D19">
-        <v>11.70544043702682</v>
+        <v>11.70544043702669</v>
       </c>
       <c r="E19">
-        <v>23.43489036128296</v>
+        <v>23.43489036128289</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.2574624510041</v>
+        <v>76.25746245100376</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.79095453282448</v>
+        <v>12.79095453282449</v>
       </c>
       <c r="J19">
-        <v>23.19249802254111</v>
+        <v>23.19249802254112</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.84756214186638</v>
+        <v>26.84756214186636</v>
       </c>
       <c r="C20">
-        <v>18.99103986149</v>
+        <v>18.9910398614901</v>
       </c>
       <c r="D20">
-        <v>11.98944440628713</v>
+        <v>11.98944440628719</v>
       </c>
       <c r="E20">
-        <v>24.01595163551202</v>
+        <v>24.015951635512</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.90484449240016</v>
+        <v>77.90484449240009</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.09578877601963</v>
+        <v>13.09578877601951</v>
       </c>
       <c r="J20">
-        <v>23.77424077815932</v>
+        <v>23.77424077815934</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.06372167997782</v>
+        <v>29.06372167997772</v>
       </c>
       <c r="C21">
-        <v>20.63924177336845</v>
+        <v>20.63924177336837</v>
       </c>
       <c r="D21">
-        <v>12.94248369105465</v>
+        <v>12.94248369105473</v>
       </c>
       <c r="E21">
-        <v>25.97295858930088</v>
+        <v>25.97295858930089</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.45344612339258</v>
+        <v>83.45344612339123</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.12467696043474</v>
+        <v>14.12467696043475</v>
       </c>
       <c r="J21">
-        <v>25.73586727332698</v>
+        <v>25.7358672733268</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.52915080467053</v>
+        <v>30.52915080467063</v>
       </c>
       <c r="C22">
-        <v>21.73955787013488</v>
+        <v>21.73955787013494</v>
       </c>
       <c r="D22">
-        <v>13.56946811924115</v>
+        <v>13.56946811924123</v>
       </c>
       <c r="E22">
-        <v>27.26714273142633</v>
+        <v>27.26714273142638</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>87.11713600672671</v>
+        <v>87.11713600672748</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.80704716028048</v>
+        <v>14.80704716028051</v>
       </c>
       <c r="J22">
-        <v>27.03505793786768</v>
+        <v>27.03505793786772</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.74449798739827</v>
+        <v>29.74449798739839</v>
       </c>
       <c r="C23">
-        <v>21.1493173824458</v>
+        <v>21.14931738244614</v>
       </c>
       <c r="D23">
-        <v>13.23408181599893</v>
+        <v>13.23408181599911</v>
       </c>
       <c r="E23">
-        <v>26.57414492261705</v>
+        <v>26.57414492261726</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.15626908629275</v>
+        <v>85.15626908629386</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.44145718543872</v>
+        <v>14.44145718543882</v>
       </c>
       <c r="J23">
-        <v>26.33918921155269</v>
+        <v>26.33918921155291</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.81143910262387</v>
+        <v>26.81143910262396</v>
       </c>
       <c r="C24">
-        <v>18.9643222923568</v>
+        <v>18.96432229235671</v>
       </c>
       <c r="D24">
-        <v>11.97386346990662</v>
+        <v>11.97386346990657</v>
       </c>
       <c r="E24">
-        <v>23.98404984980171</v>
+        <v>23.98404984980176</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.8143848740493</v>
+        <v>77.81438487404934</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>13.07904492998477</v>
       </c>
       <c r="J24">
-        <v>23.74229340664485</v>
+        <v>23.74229340664487</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.64585516996904</v>
+        <v>23.64585516996895</v>
       </c>
       <c r="C25">
-        <v>16.63966159953448</v>
+        <v>16.63966159953481</v>
       </c>
       <c r="D25">
-        <v>10.60295612089363</v>
+        <v>10.60295612089349</v>
       </c>
       <c r="E25">
-        <v>21.18722768338201</v>
+        <v>21.18722768338193</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.89746613081982</v>
+        <v>69.89746613081967</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.61452280591262</v>
+        <v>11.61452280591269</v>
       </c>
       <c r="J25">
-        <v>20.94510759288764</v>
+        <v>20.94510759288761</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.25498542084837</v>
+        <v>21.25095005343319</v>
       </c>
       <c r="C2">
-        <v>14.90343395754799</v>
+        <v>14.89851751936611</v>
       </c>
       <c r="D2">
-        <v>9.572563342114057</v>
+        <v>9.571955179286599</v>
       </c>
       <c r="E2">
-        <v>19.0722439545196</v>
+        <v>19.07066245897879</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.95193595597548</v>
+        <v>63.33647006202254</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.93805063513111</v>
       </c>
       <c r="I2">
-        <v>10.51146103493479</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>18.83435099243688</v>
+        <v>10.51067153456792</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.8297575675036</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.57712617877493</v>
+        <v>19.5742053781294</v>
       </c>
       <c r="C3">
-        <v>13.69337806972273</v>
+        <v>13.68968596418508</v>
       </c>
       <c r="D3">
-        <v>8.934299032515609</v>
+        <v>8.933888643240442</v>
       </c>
       <c r="E3">
-        <v>17.58581524639061</v>
+        <v>17.58469129400542</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.81322406234992</v>
+        <v>59.02910263805571</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.80267297386197</v>
       </c>
       <c r="I3">
-        <v>9.738562000649319</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.35293383937139</v>
+        <v>9.738006673005257</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.34948869951764</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.51355981213694</v>
+        <v>18.51125185074377</v>
       </c>
       <c r="C4">
-        <v>12.92937855451074</v>
+        <v>12.92637778838426</v>
       </c>
       <c r="D4">
-        <v>8.535562549887791</v>
+        <v>8.535254254632706</v>
       </c>
       <c r="E4">
-        <v>16.64234531473501</v>
+        <v>16.64146385755385</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.21045449176134</v>
+        <v>56.31034463272718</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.20198985838508</v>
       </c>
       <c r="I4">
-        <v>9.249048851754011</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>16.41339680172502</v>
+        <v>9.248616580907482</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.41059800185755</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.07115529130155</v>
+        <v>18.06908189771796</v>
       </c>
       <c r="C5">
-        <v>12.61218943018515</v>
+        <v>12.60945804043997</v>
       </c>
       <c r="D5">
-        <v>8.371280064179604</v>
+        <v>8.371009353789002</v>
       </c>
       <c r="E5">
-        <v>16.24955542242308</v>
+        <v>16.24876507116377</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.13359163854687</v>
+        <v>55.1829171935066</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>56.12599541540114</v>
       </c>
       <c r="I5">
-        <v>9.045509590696312</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>16.02239492850105</v>
+        <v>9.045123303898329</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.01984758982353</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.99713550742869</v>
+        <v>17.99510021655557</v>
       </c>
       <c r="C6">
-        <v>12.55915186299409</v>
+        <v>12.55646452849486</v>
       </c>
       <c r="D6">
-        <v>8.343891808159023</v>
+        <v>8.343627117047529</v>
       </c>
       <c r="E6">
-        <v>16.18381536835464</v>
+        <v>16.18303972827736</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.9537854308815</v>
+        <v>54.9945102672831</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>55.94633472863705</v>
       </c>
       <c r="I6">
-        <v>9.011459108698828</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>15.95696208723915</v>
+        <v>9.011080232336623</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.9544558546188</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.50763052516668</v>
+        <v>18.50532578544714</v>
       </c>
       <c r="C7">
-        <v>12.92512522047842</v>
+        <v>12.92212813395751</v>
       </c>
       <c r="D7">
-        <v>8.533354293624745</v>
+        <v>8.533046520549915</v>
       </c>
       <c r="E7">
-        <v>16.63708239070528</v>
+        <v>16.63620219117514</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.19599790179611</v>
+        <v>56.29521970349793</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.18754489628386</v>
       </c>
       <c r="I7">
-        <v>9.246320643023111</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>16.40815728080546</v>
+        <v>9.245889007973961</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.40536191721957</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68298282124433</v>
+        <v>20.67934852902004</v>
       </c>
       <c r="C8">
-        <v>14.49020002483562</v>
+        <v>14.48572019532745</v>
       </c>
       <c r="D8">
-        <v>9.353843507086246</v>
+        <v>9.353308125018005</v>
       </c>
       <c r="E8">
-        <v>18.56574090727839</v>
+        <v>18.56432647772288</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.53714087998088</v>
+        <v>61.86600410927421</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.52440239751441</v>
       </c>
       <c r="I8">
-        <v>10.24787131778482</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>18.32938034420862</v>
+        <v>10.24716757638503</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.3251969499753</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.71831447450126</v>
+        <v>24.7113294719295</v>
       </c>
       <c r="C9">
-        <v>17.42368040397721</v>
+        <v>17.41564117169949</v>
       </c>
       <c r="D9">
-        <v>11.06859540975133</v>
+        <v>11.06719551900813</v>
       </c>
       <c r="E9">
-        <v>22.13508143816264</v>
+        <v>22.13219372054887</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.57612211002977</v>
+        <v>72.26357132655258</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.55484164507936</v>
       </c>
       <c r="I9">
-        <v>12.1101073638876</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>21.89229242409257</v>
+        <v>12.10864040603296</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.8847494206057</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.60417290889328</v>
+        <v>27.5939122418387</v>
       </c>
       <c r="C10">
-        <v>19.55171174265716</v>
+        <v>19.54031386684838</v>
       </c>
       <c r="D10">
-        <v>12.31545500111654</v>
+        <v>12.3133013475239</v>
       </c>
       <c r="E10">
-        <v>24.68411228143022</v>
+        <v>24.67963269577954</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.79960736195335</v>
+        <v>79.70309642230372</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>79.7711382659207</v>
       </c>
       <c r="I10">
-        <v>13.44668338120879</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>24.44357520460098</v>
+        <v>13.44437997511307</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.4328301572407</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.91942496111523</v>
+        <v>28.90736325895451</v>
       </c>
       <c r="C11">
-        <v>20.5313620728303</v>
+        <v>20.51814791823373</v>
       </c>
       <c r="D11">
-        <v>12.88060503761521</v>
+        <v>12.87801536944941</v>
       </c>
       <c r="E11">
-        <v>25.84553668411158</v>
+        <v>25.84012670409099</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.09236921527932</v>
+        <v>83.08548272147594</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>83.08548272150571</v>
       </c>
       <c r="I11">
-        <v>14.05757894991239</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>25.60803562677767</v>
+        <v>14.05478291108832</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.59554792833222</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.42012008712878</v>
+        <v>29.40731366507841</v>
       </c>
       <c r="C12">
-        <v>20.90604482865592</v>
+        <v>20.89208450375002</v>
       </c>
       <c r="D12">
-        <v>13.09521053313654</v>
+        <v>13.09243656395178</v>
       </c>
       <c r="E12">
-        <v>26.28768444076626</v>
+        <v>26.28187928088941</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.34505895934228</v>
+        <v>84.37099640297903</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>84.37099640297913</v>
       </c>
       <c r="I12">
-        <v>14.2904711417618</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>26.05166960822643</v>
+        <v>14.28746517984487</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.03846396712123</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.31212463668808</v>
+        <v>29.29948176990965</v>
       </c>
       <c r="C13">
-        <v>20.82514534898285</v>
+        <v>20.81134867580061</v>
       </c>
       <c r="D13">
-        <v>13.04894760093959</v>
+        <v>13.0462143008559</v>
       </c>
       <c r="E13">
-        <v>26.19231540751121</v>
+        <v>26.186597544427</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>84.0749171658459</v>
+        <v>84.09383290644813</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>84.09383290644804</v>
       </c>
       <c r="I13">
-        <v>14.24022188719337</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>25.9559647117009</v>
+        <v>14.23726233052586</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.94291662788271</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.96054884491927</v>
+        <v>28.9484272637129</v>
       </c>
       <c r="C14">
-        <v>20.56209899538024</v>
+        <v>20.54882474748314</v>
       </c>
       <c r="D14">
-        <v>12.89824269859701</v>
+        <v>12.89563829571975</v>
       </c>
       <c r="E14">
-        <v>25.88185120170209</v>
+        <v>25.87640966781712</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.19527906443821</v>
+        <v>83.19111461748575</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>83.1911146174857</v>
       </c>
       <c r="I14">
-        <v>14.07669995485347</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>25.64446538208657</v>
+        <v>14.07388716838305</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.63191990579789</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.74562233344384</v>
+        <v>28.7338112153041</v>
       </c>
       <c r="C15">
-        <v>20.40153059032041</v>
+        <v>20.38856810845642</v>
       </c>
       <c r="D15">
-        <v>12.80604040713281</v>
+        <v>12.80351223930334</v>
       </c>
       <c r="E15">
-        <v>25.69206087110573</v>
+        <v>25.68678251478934</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.65740095268073</v>
+        <v>82.63895787543647</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>82.63895787543646</v>
       </c>
       <c r="I15">
-        <v>13.97678153023637</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>25.45408633190481</v>
+        <v>13.97405532539702</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>25.44184052738967</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.51844702613003</v>
+        <v>27.50829643898386</v>
       </c>
       <c r="C16">
-        <v>19.4880830843239</v>
+        <v>19.47679681814975</v>
       </c>
       <c r="D16">
-        <v>12.27854983579783</v>
+        <v>12.27642236506299</v>
       </c>
       <c r="E16">
-        <v>24.60841071582639</v>
+        <v>24.60398678969824</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.58492995067979</v>
+        <v>79.48239879165601</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>79.55669363764511</v>
       </c>
       <c r="I16">
-        <v>13.40690765460982</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>24.36771962697224</v>
+        <v>13.40463364187223</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.35708142643735</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.76766031062371</v>
+        <v>26.7584382322948</v>
       </c>
       <c r="C17">
-        <v>18.93194842604323</v>
+        <v>18.92160666807607</v>
       </c>
       <c r="D17">
-        <v>11.95497842587131</v>
+        <v>11.95306955011483</v>
       </c>
       <c r="E17">
-        <v>23.9453867015121</v>
+        <v>23.94142648392505</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.70475460727394</v>
+        <v>77.54851421623582</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>77.67850108867161</v>
       </c>
       <c r="I17">
-        <v>13.05875353770265</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>23.70357628596709</v>
+        <v>13.0567240286933</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.6938411242822</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.33588913190064</v>
+        <v>26.32717325929466</v>
       </c>
       <c r="C18">
-        <v>18.61301400581019</v>
+        <v>18.60318968531402</v>
       </c>
       <c r="D18">
-        <v>11.76860929066922</v>
+        <v>11.76681783962126</v>
       </c>
       <c r="E18">
-        <v>23.56405309971908</v>
+        <v>23.56034123288227</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.62359874047141</v>
+        <v>76.43564419055193</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>76.59844297127043</v>
       </c>
       <c r="I18">
-        <v>12.85869002166465</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>23.32178507392893</v>
+        <v>12.85679116867263</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.31254372329244</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.18965073820447</v>
+        <v>26.18110190530108</v>
       </c>
       <c r="C19">
-        <v>18.50513723493851</v>
+        <v>18.49548408077657</v>
       </c>
       <c r="D19">
-        <v>11.70544043702669</v>
+        <v>11.7036874546343</v>
       </c>
       <c r="E19">
-        <v>23.43489036128289</v>
+        <v>23.43125973831999</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.25746245100376</v>
+        <v>76.05862489257801</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>76.23267192881035</v>
       </c>
       <c r="I19">
-        <v>12.79095453282449</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>23.19249802254112</v>
+        <v>12.78909837426872</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.1834198770083</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.84756214186636</v>
+        <v>26.83824421058343</v>
       </c>
       <c r="C20">
-        <v>18.9910398614901</v>
+        <v>18.98060033120781</v>
       </c>
       <c r="D20">
-        <v>11.98944440628719</v>
+        <v>11.9875131542167</v>
       </c>
       <c r="E20">
-        <v>24.015951635512</v>
+        <v>24.011944032603</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.90484449240009</v>
+        <v>77.75440567933516</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>77.87838454379001</v>
       </c>
       <c r="I20">
-        <v>13.09578877601951</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>23.77424077815934</v>
+        <v>13.09373431375412</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.76441223518386</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.06372167997772</v>
+        <v>29.0514488712214</v>
       </c>
       <c r="C21">
-        <v>20.63924177336837</v>
+        <v>20.62581583429525</v>
       </c>
       <c r="D21">
-        <v>12.94248369105473</v>
+        <v>12.93984200895426</v>
       </c>
       <c r="E21">
-        <v>25.97295858930089</v>
+        <v>25.96743719162901</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.45344612339123</v>
+        <v>83.45609011194102</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>83.45609011194102</v>
       </c>
       <c r="I21">
-        <v>14.12467696043475</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>25.7358672733268</v>
+        <v>14.12182177409358</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.72317591754769</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.52915080467063</v>
+        <v>30.51456594580976</v>
       </c>
       <c r="C22">
-        <v>21.73955787013494</v>
+        <v>21.72382546384491</v>
       </c>
       <c r="D22">
-        <v>13.56946811924123</v>
+        <v>13.56624520286458</v>
       </c>
       <c r="E22">
-        <v>27.26714273142638</v>
+        <v>27.26037050736693</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>87.11713600672748</v>
+        <v>87.21339119665052</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>87.21339119675223</v>
       </c>
       <c r="I22">
-        <v>14.80704716028051</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>27.03505793786772</v>
+        <v>14.80352598100416</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.0201428837678</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.74449798739839</v>
+        <v>29.7311903352869</v>
       </c>
       <c r="C23">
-        <v>21.14931738244614</v>
+        <v>21.13485627695906</v>
       </c>
       <c r="D23">
-        <v>13.23408181599911</v>
+        <v>13.23118255017349</v>
       </c>
       <c r="E23">
-        <v>26.57414492261726</v>
+        <v>26.5680704844645</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.15626908629386</v>
+        <v>85.2031081783101</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>85.20310817831097</v>
       </c>
       <c r="I23">
-        <v>14.44145718543882</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>26.33918921155291</v>
+        <v>14.43830796883256</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.32550110948697</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.81143910262396</v>
+        <v>26.8021645912169</v>
       </c>
       <c r="C24">
-        <v>18.96432229235671</v>
+        <v>18.95392704343283</v>
       </c>
       <c r="D24">
-        <v>11.97386346990657</v>
+        <v>11.97194235946472</v>
       </c>
       <c r="E24">
-        <v>23.98404984980176</v>
+        <v>23.98006372571808</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.81438487404934</v>
+        <v>77.66132578131655</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>77.78801838127507</v>
       </c>
       <c r="I24">
-        <v>13.07904492998477</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>23.74229340664487</v>
+        <v>13.07700177946958</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.73250715917699</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.64585516996895</v>
+        <v>23.63988602539868</v>
       </c>
       <c r="C25">
-        <v>16.63966159953481</v>
+        <v>16.63268393320083</v>
       </c>
       <c r="D25">
-        <v>10.60295612089349</v>
+        <v>10.60177834324417</v>
       </c>
       <c r="E25">
-        <v>21.18722768338193</v>
+        <v>21.18480454770202</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.89746613081967</v>
+        <v>69.49681067485342</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.87858309066371</v>
       </c>
       <c r="I25">
-        <v>11.61452280591269</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>20.94510759288761</v>
+        <v>11.61329796950491</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.9385704846569</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>12.64617143788787</v>
+      </c>
+      <c r="C2">
+        <v>6.96172451331436</v>
+      </c>
+      <c r="D2">
+        <v>7.141100361087187</v>
+      </c>
+      <c r="E2">
+        <v>14.60424442857405</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>22.92748387440999</v>
+      </c>
+      <c r="H2">
+        <v>8.779142064327271</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>11.27670872306412</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>14.56204250523432</v>
+      </c>
+      <c r="N2">
+        <v>11.87997567708241</v>
+      </c>
+      <c r="O2">
+        <v>14.49682537569219</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>11.83829452153546</v>
+      </c>
+      <c r="C3">
+        <v>6.701478093278415</v>
+      </c>
+      <c r="D3">
+        <v>6.650282007822642</v>
+      </c>
+      <c r="E3">
+        <v>13.73590561568876</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>22.3622888571168</v>
+      </c>
+      <c r="H3">
+        <v>8.79788005400213</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>10.66876188157807</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>13.62885643407589</v>
+      </c>
+      <c r="N3">
+        <v>12.0818693043968</v>
+      </c>
+      <c r="O3">
+        <v>14.39919060275113</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>11.31385286752979</v>
+      </c>
+      <c r="C4">
+        <v>6.536165370851843</v>
+      </c>
+      <c r="D4">
+        <v>6.331706258340558</v>
+      </c>
+      <c r="E4">
+        <v>13.18681223863882</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>22.03349988081011</v>
+      </c>
+      <c r="H4">
+        <v>8.815013228954209</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10.27699421932338</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>13.02532752153682</v>
+      </c>
+      <c r="N4">
+        <v>12.20849768202211</v>
+      </c>
+      <c r="O4">
+        <v>14.35124636748336</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>11.09298633677478</v>
+      </c>
+      <c r="C5">
+        <v>6.467467732917783</v>
+      </c>
+      <c r="D5">
+        <v>6.206591000508813</v>
+      </c>
+      <c r="E5">
+        <v>12.959259745634</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>21.90417666792322</v>
+      </c>
+      <c r="H5">
+        <v>8.823361415910504</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>10.11276173333927</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>12.77168245792556</v>
+      </c>
+      <c r="N5">
+        <v>12.26079281254938</v>
+      </c>
+      <c r="O5">
+        <v>14.33463973130356</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>11.05587948567797</v>
+      </c>
+      <c r="C6">
+        <v>6.455981942450363</v>
+      </c>
+      <c r="D6">
+        <v>6.187444349287312</v>
+      </c>
+      <c r="E6">
+        <v>12.92125303369567</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>21.88298595072474</v>
+      </c>
+      <c r="H6">
+        <v>8.824828731224004</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>10.08521642274114</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>12.7290993306831</v>
+      </c>
+      <c r="N6">
+        <v>12.26951888809599</v>
+      </c>
+      <c r="O6">
+        <v>14.33205657761859</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>11.31090315195271</v>
+      </c>
+      <c r="C7">
+        <v>6.535244200441361</v>
+      </c>
+      <c r="D7">
+        <v>6.329914344511852</v>
+      </c>
+      <c r="E7">
+        <v>13.1837584215946</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>22.03173682659049</v>
+      </c>
+      <c r="H7">
+        <v>8.815120347537112</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>10.27479778505862</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>13.02193797987226</v>
+      </c>
+      <c r="N7">
+        <v>12.20920011674901</v>
+      </c>
+      <c r="O7">
+        <v>14.35101065643404</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>12.37350167655189</v>
+      </c>
+      <c r="C8">
+        <v>6.873168983811949</v>
+      </c>
+      <c r="D8">
+        <v>6.975420300094496</v>
+      </c>
+      <c r="E8">
+        <v>14.30825954631217</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>22.7288675053459</v>
+      </c>
+      <c r="H8">
+        <v>8.784405161714529</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>11.07095878114698</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>14.24660457090765</v>
+      </c>
+      <c r="N8">
+        <v>11.94904966606009</v>
+      </c>
+      <c r="O8">
+        <v>14.4606185900285</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>14.23274903844957</v>
+      </c>
+      <c r="C9">
+        <v>7.489932920319204</v>
+      </c>
+      <c r="D9">
+        <v>8.106061260082679</v>
+      </c>
+      <c r="E9">
+        <v>16.44889848150159</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>24.23677325833335</v>
+      </c>
+      <c r="H9">
+        <v>8.771057452757592</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>12.48355228700682</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>16.40727692757841</v>
+      </c>
+      <c r="N9">
+        <v>11.45893989339136</v>
+      </c>
+      <c r="O9">
+        <v>14.77442592075948</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>15.46349343700254</v>
+      </c>
+      <c r="C10">
+        <v>7.912784213947919</v>
+      </c>
+      <c r="D10">
+        <v>8.856265912731558</v>
+      </c>
+      <c r="E10">
+        <v>18.06052689822763</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>25.42475624648375</v>
+      </c>
+      <c r="H10">
+        <v>8.792941902984062</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>13.42906005783734</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>17.85063557798296</v>
+      </c>
+      <c r="N10">
+        <v>11.10944546103906</v>
+      </c>
+      <c r="O10">
+        <v>15.06978476141838</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>15.9944707987801</v>
+      </c>
+      <c r="C11">
+        <v>8.09822249786054</v>
+      </c>
+      <c r="D11">
+        <v>9.1805120007828</v>
+      </c>
+      <c r="E11">
+        <v>18.76348091255555</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>25.98135720800325</v>
+      </c>
+      <c r="H11">
+        <v>8.810460637972753</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>13.83902250607091</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>18.47673345978432</v>
+      </c>
+      <c r="N11">
+        <v>10.95236570220325</v>
+      </c>
+      <c r="O11">
+        <v>15.21907195776861</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>16.19142384228591</v>
+      </c>
+      <c r="C12">
+        <v>8.167426605117903</v>
+      </c>
+      <c r="D12">
+        <v>9.300883483090628</v>
+      </c>
+      <c r="E12">
+        <v>19.02543813374065</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>26.19435692149188</v>
+      </c>
+      <c r="H12">
+        <v>8.818238945422904</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>13.99136699821811</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>18.70950663062793</v>
+      </c>
+      <c r="N12">
+        <v>10.89312415389562</v>
+      </c>
+      <c r="O12">
+        <v>15.27781108364649</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>16.1491889149812</v>
+      </c>
+      <c r="C13">
+        <v>8.152567807704648</v>
+      </c>
+      <c r="D13">
+        <v>9.275066103312005</v>
+      </c>
+      <c r="E13">
+        <v>18.96920758882866</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>26.14838604240447</v>
+      </c>
+      <c r="H13">
+        <v>8.816511942889788</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>13.95868577566887</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>18.65956557623396</v>
+      </c>
+      <c r="N13">
+        <v>10.90587270675427</v>
+      </c>
+      <c r="O13">
+        <v>15.26506147232216</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>16.01075651319478</v>
+      </c>
+      <c r="C14">
+        <v>8.103936459404951</v>
+      </c>
+      <c r="D14">
+        <v>9.190463201027724</v>
+      </c>
+      <c r="E14">
+        <v>18.78511655468447</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>25.99883672155154</v>
+      </c>
+      <c r="H14">
+        <v>8.811077302521499</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>13.85161406710908</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>18.49596994082149</v>
+      </c>
+      <c r="N14">
+        <v>10.94748722880556</v>
+      </c>
+      <c r="O14">
+        <v>15.22385989154887</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>15.92542777479317</v>
+      </c>
+      <c r="C15">
+        <v>8.074015294600715</v>
+      </c>
+      <c r="D15">
+        <v>9.138328228436771</v>
+      </c>
+      <c r="E15">
+        <v>18.67180708165019</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>25.90752069427677</v>
+      </c>
+      <c r="H15">
+        <v>8.807899149934967</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>13.78565206212063</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>18.39520290478005</v>
+      </c>
+      <c r="N15">
+        <v>10.9730077101923</v>
+      </c>
+      <c r="O15">
+        <v>15.19891191477212</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>15.42821458876781</v>
+      </c>
+      <c r="C16">
+        <v>7.900524116889174</v>
+      </c>
+      <c r="D16">
+        <v>8.834736015186754</v>
+      </c>
+      <c r="E16">
+        <v>18.01398847963532</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>25.38869789758963</v>
+      </c>
+      <c r="H16">
+        <v>8.791954043143397</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>13.40186221054177</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>17.8091106894806</v>
+      </c>
+      <c r="N16">
+        <v>11.11974658877361</v>
+      </c>
+      <c r="O16">
+        <v>15.06033417012729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>15.11581601603534</v>
+      </c>
+      <c r="C17">
+        <v>7.79230307703072</v>
+      </c>
+      <c r="D17">
+        <v>8.644155718986235</v>
+      </c>
+      <c r="E17">
+        <v>17.60277791807049</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>25.07448711105672</v>
+      </c>
+      <c r="H17">
+        <v>8.784149574328612</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>13.16125423628906</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>17.44179843916071</v>
+      </c>
+      <c r="N17">
+        <v>11.2102317162087</v>
+      </c>
+      <c r="O17">
+        <v>14.97918919790836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>14.9334103991157</v>
+      </c>
+      <c r="C18">
+        <v>7.729406931672174</v>
+      </c>
+      <c r="D18">
+        <v>8.532934277047524</v>
+      </c>
+      <c r="E18">
+        <v>17.36341250941508</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>24.89528993074562</v>
+      </c>
+      <c r="H18">
+        <v>8.780369119704149</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>13.02096546348506</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>17.22765543835122</v>
+      </c>
+      <c r="N18">
+        <v>11.26245797160612</v>
+      </c>
+      <c r="O18">
+        <v>14.9339184506025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>14.87118233679684</v>
+      </c>
+      <c r="C19">
+        <v>7.7080004682838</v>
+      </c>
+      <c r="D19">
+        <v>8.494999958188757</v>
+      </c>
+      <c r="E19">
+        <v>17.28187535843076</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>24.83488258852525</v>
+      </c>
+      <c r="H19">
+        <v>8.779209084331756</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>12.97314037992261</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>17.15465459722353</v>
+      </c>
+      <c r="N19">
+        <v>11.28017304735509</v>
+      </c>
+      <c r="O19">
+        <v>14.91882936282875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>15.14935285005626</v>
+      </c>
+      <c r="C20">
+        <v>7.803890871462384</v>
+      </c>
+      <c r="D20">
+        <v>8.664609148375298</v>
+      </c>
+      <c r="E20">
+        <v>17.64684601847524</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>25.10777794427074</v>
+      </c>
+      <c r="H20">
+        <v>8.784906640441907</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>13.18706377697215</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>17.48119650405242</v>
+      </c>
+      <c r="N20">
+        <v>11.20058085732871</v>
+      </c>
+      <c r="O20">
+        <v>14.98768169289837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>16.05152886323769</v>
+      </c>
+      <c r="C21">
+        <v>8.118248427112878</v>
+      </c>
+      <c r="D21">
+        <v>9.215378341820946</v>
+      </c>
+      <c r="E21">
+        <v>18.83930263820092</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>26.04270328122385</v>
+      </c>
+      <c r="H21">
+        <v>8.812642075814782</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>13.8831422838836</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>18.54413851293177</v>
+      </c>
+      <c r="N21">
+        <v>10.93525776492312</v>
+      </c>
+      <c r="O21">
+        <v>15.23590142738709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>16.61717894464033</v>
+      </c>
+      <c r="C22">
+        <v>8.317762803018365</v>
+      </c>
+      <c r="D22">
+        <v>9.561287314651759</v>
+      </c>
+      <c r="E22">
+        <v>19.59400632170209</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>26.66667438384391</v>
+      </c>
+      <c r="H22">
+        <v>8.837465643691873</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>14.32117466622868</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>19.21370944700638</v>
+      </c>
+      <c r="N22">
+        <v>10.76324239668605</v>
+      </c>
+      <c r="O22">
+        <v>15.41101833273296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>16.31746085388972</v>
+      </c>
+      <c r="C23">
+        <v>8.211827411786585</v>
+      </c>
+      <c r="D23">
+        <v>9.377942989820413</v>
+      </c>
+      <c r="E23">
+        <v>19.19342363094676</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>26.33249479530799</v>
+      </c>
+      <c r="H23">
+        <v>8.823585173005682</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>14.08893291016863</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>18.85862115786262</v>
+      </c>
+      <c r="N23">
+        <v>10.85493469592887</v>
+      </c>
+      <c r="O23">
+        <v>15.31635669261084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>15.13419958258897</v>
+      </c>
+      <c r="C24">
+        <v>7.798654140988277</v>
+      </c>
+      <c r="D24">
+        <v>8.655367308315327</v>
+      </c>
+      <c r="E24">
+        <v>17.62693204213503</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>25.09272264440768</v>
+      </c>
+      <c r="H24">
+        <v>8.784562174743609</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>13.17540138854042</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>17.46339389581091</v>
+      </c>
+      <c r="N24">
+        <v>11.20494336915628</v>
+      </c>
+      <c r="O24">
+        <v>14.98383794037715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>13.75366026016442</v>
+      </c>
+      <c r="C25">
+        <v>7.328260072027867</v>
+      </c>
+      <c r="D25">
+        <v>7.814468761123761</v>
+      </c>
+      <c r="E25">
+        <v>15.8346982756714</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>23.81434127030751</v>
+      </c>
+      <c r="H25">
+        <v>8.769330894353384</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>12.11754537253434</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>15.84829342607365</v>
+      </c>
+      <c r="N25">
+        <v>11.58954428721419</v>
+      </c>
+      <c r="O25">
+        <v>14.6784572816349</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.64617143788787</v>
+        <v>8.725601455334775</v>
       </c>
       <c r="C2">
-        <v>6.96172451331436</v>
+        <v>5.781599240996697</v>
       </c>
       <c r="D2">
-        <v>7.141100361087187</v>
+        <v>5.980611105102169</v>
       </c>
       <c r="E2">
-        <v>14.60424442857405</v>
+        <v>12.76293396798647</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.92748387440999</v>
+        <v>28.10905514645271</v>
       </c>
       <c r="H2">
-        <v>8.779142064327271</v>
+        <v>14.09959807047985</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.27670872306412</v>
+        <v>7.936820453847593</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.56204250523432</v>
+        <v>13.37237366917323</v>
       </c>
       <c r="N2">
-        <v>11.87997567708241</v>
+        <v>18.43650546021523</v>
       </c>
       <c r="O2">
-        <v>14.49682537569219</v>
+        <v>21.38109274803454</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.83829452153546</v>
+        <v>8.436408262567735</v>
       </c>
       <c r="C3">
-        <v>6.701478093278415</v>
+        <v>5.675404925169916</v>
       </c>
       <c r="D3">
-        <v>6.650282007822642</v>
+        <v>5.860764096022106</v>
       </c>
       <c r="E3">
-        <v>13.73590561568876</v>
+        <v>12.54969614024091</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.3622888571168</v>
+        <v>28.10051850850035</v>
       </c>
       <c r="H3">
-        <v>8.79788005400213</v>
+        <v>14.13792960440271</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.66876188157807</v>
+        <v>7.740783164299862</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.62885643407589</v>
+        <v>13.19933193705617</v>
       </c>
       <c r="N3">
-        <v>12.0818693043968</v>
+        <v>18.49610281837917</v>
       </c>
       <c r="O3">
-        <v>14.39919060275113</v>
+        <v>21.43055067625185</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.31385286752979</v>
+        <v>8.255269698877035</v>
       </c>
       <c r="C4">
-        <v>6.536165370851843</v>
+        <v>5.60850043691454</v>
       </c>
       <c r="D4">
-        <v>6.331706258340558</v>
+        <v>5.787659500711089</v>
       </c>
       <c r="E4">
-        <v>13.18681223863882</v>
+        <v>12.42134070929188</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.03349988081011</v>
+        <v>28.10421294811156</v>
       </c>
       <c r="H4">
-        <v>8.815013228954209</v>
+        <v>14.16369894441982</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.27699421932338</v>
+        <v>7.619158236679636</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.02532752153682</v>
+        <v>13.09521608548949</v>
       </c>
       <c r="N4">
-        <v>12.20849768202211</v>
+        <v>18.53438309409822</v>
       </c>
       <c r="O4">
-        <v>14.35124636748336</v>
+        <v>21.46549919259889</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.09298633677478</v>
+        <v>8.180676287135439</v>
       </c>
       <c r="C5">
-        <v>6.467467732917783</v>
+        <v>5.580829208160272</v>
       </c>
       <c r="D5">
-        <v>6.206591000508813</v>
+        <v>5.758036618526384</v>
       </c>
       <c r="E5">
-        <v>12.959259745634</v>
+        <v>12.36975729847239</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.90417666792322</v>
+        <v>28.10796369685828</v>
       </c>
       <c r="H5">
-        <v>8.823361415910504</v>
+        <v>14.1747615566878</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.11276173333927</v>
+        <v>7.569353132714046</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.77168245792556</v>
+        <v>13.05337536051415</v>
       </c>
       <c r="N5">
-        <v>12.26079281254938</v>
+        <v>18.55040815924673</v>
       </c>
       <c r="O5">
-        <v>14.33463973130356</v>
+        <v>21.48089063792745</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.05587948567797</v>
+        <v>8.168246831190698</v>
       </c>
       <c r="C6">
-        <v>6.455981942450363</v>
+        <v>5.576210451798395</v>
       </c>
       <c r="D6">
-        <v>6.187444349287312</v>
+        <v>5.753129271597144</v>
       </c>
       <c r="E6">
-        <v>12.92125303369567</v>
+        <v>12.36123772553355</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.88298595072474</v>
+        <v>28.10872202279387</v>
       </c>
       <c r="H6">
-        <v>8.824828731224004</v>
+        <v>14.17663239393658</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.08521642274114</v>
+        <v>7.561070652270621</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.7290993306831</v>
+        <v>13.04646468462045</v>
       </c>
       <c r="N6">
-        <v>12.26951888809599</v>
+        <v>18.55309484807864</v>
       </c>
       <c r="O6">
-        <v>14.33205657761859</v>
+        <v>21.48351573922007</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.31090315195271</v>
+        <v>8.254266689710308</v>
       </c>
       <c r="C7">
-        <v>6.535244200441361</v>
+        <v>5.608128873583142</v>
       </c>
       <c r="D7">
-        <v>6.329914344511852</v>
+        <v>5.787259254574809</v>
       </c>
       <c r="E7">
-        <v>13.1837584215946</v>
+        <v>12.42064201346161</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.03173682659049</v>
+        <v>28.10425444496226</v>
       </c>
       <c r="H7">
-        <v>8.815120347537112</v>
+        <v>14.16384586597534</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.27479778505862</v>
+        <v>7.618487426846535</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.02193797987226</v>
+        <v>13.09464936207989</v>
       </c>
       <c r="N7">
-        <v>12.20920011674901</v>
+        <v>18.5345974890533</v>
       </c>
       <c r="O7">
-        <v>14.35101065643404</v>
+        <v>21.46570211540201</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.37350167655189</v>
+        <v>8.626698375533124</v>
       </c>
       <c r="C8">
-        <v>6.873168983811949</v>
+        <v>5.745348481481644</v>
       </c>
       <c r="D8">
-        <v>6.975420300094496</v>
+        <v>5.939215613333714</v>
       </c>
       <c r="E8">
-        <v>14.30825954631217</v>
+        <v>12.68892097149961</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.7288675053459</v>
+        <v>28.10425654818285</v>
       </c>
       <c r="H8">
-        <v>8.784405161714529</v>
+        <v>14.11235104065991</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.07095878114698</v>
+        <v>7.869531180324733</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.24660457090765</v>
+        <v>13.31229725808578</v>
       </c>
       <c r="N8">
-        <v>11.94904966606009</v>
+        <v>18.45670520598119</v>
       </c>
       <c r="O8">
-        <v>14.4606185900285</v>
+        <v>21.39719368448924</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.23274903844957</v>
+        <v>9.323899034017421</v>
       </c>
       <c r="C9">
-        <v>7.489932920319204</v>
+        <v>6.000086513129707</v>
       </c>
       <c r="D9">
-        <v>8.106061260082679</v>
+        <v>6.239016172089172</v>
       </c>
       <c r="E9">
-        <v>16.44889848150159</v>
+        <v>13.23208559159682</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.23677325833335</v>
+        <v>28.17515806936498</v>
       </c>
       <c r="H9">
-        <v>8.771057452757592</v>
+        <v>14.02910418788099</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.48355228700682</v>
+        <v>8.413751216739517</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.40727692757841</v>
+        <v>13.75373591995683</v>
       </c>
       <c r="N9">
-        <v>11.45893989339136</v>
+        <v>18.317287354759</v>
       </c>
       <c r="O9">
-        <v>14.77442592075948</v>
+        <v>21.29929489277364</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.46349343700254</v>
+        <v>9.810219128045244</v>
       </c>
       <c r="C10">
-        <v>7.912784213947919</v>
+        <v>6.177422010430123</v>
       </c>
       <c r="D10">
-        <v>8.856265912731558</v>
+        <v>6.457781602760402</v>
       </c>
       <c r="E10">
-        <v>18.06052689822763</v>
+        <v>13.63707703587992</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.42475624648375</v>
+        <v>28.27033850416893</v>
       </c>
       <c r="H10">
-        <v>8.792941902984062</v>
+        <v>13.97876929792985</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.42906005783734</v>
+        <v>8.87393216611496</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.85063557798296</v>
+        <v>14.08388626544473</v>
       </c>
       <c r="N10">
-        <v>11.10944546103906</v>
+        <v>18.22289849158818</v>
       </c>
       <c r="O10">
-        <v>15.06978476141838</v>
+        <v>21.24970821123426</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.9944707987801</v>
+        <v>10.02481811808395</v>
       </c>
       <c r="C11">
-        <v>8.09822249786054</v>
+        <v>6.255757442531566</v>
       </c>
       <c r="D11">
-        <v>9.1805120007828</v>
+        <v>6.556460410622266</v>
       </c>
       <c r="E11">
-        <v>18.76348091255555</v>
+        <v>13.82167681742981</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.98135720800325</v>
+        <v>28.32292448578382</v>
       </c>
       <c r="H11">
-        <v>8.810460637972753</v>
+        <v>13.95822447464865</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.83902250607091</v>
+        <v>9.073976219844202</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.47673345978432</v>
+        <v>14.23469047135316</v>
       </c>
       <c r="N11">
-        <v>10.95236570220325</v>
+        <v>18.18168670461345</v>
       </c>
       <c r="O11">
-        <v>15.21907195776861</v>
+        <v>21.23202198067202</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.19142384228591</v>
+        <v>10.10505548135608</v>
       </c>
       <c r="C12">
-        <v>8.167426605117903</v>
+        <v>6.28506927985956</v>
       </c>
       <c r="D12">
-        <v>9.300883483090628</v>
+        <v>6.593666567675059</v>
       </c>
       <c r="E12">
-        <v>19.02543813374065</v>
+        <v>13.8915580264062</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.19435692149188</v>
+        <v>28.34416371588687</v>
       </c>
       <c r="H12">
-        <v>8.818238945422904</v>
+        <v>13.9507832329556</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.99136699821811</v>
+        <v>9.148360144919229</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.70950663062793</v>
+        <v>14.29183106401439</v>
       </c>
       <c r="N12">
-        <v>10.89312415389562</v>
+        <v>18.16632777059509</v>
       </c>
       <c r="O12">
-        <v>15.27781108364649</v>
+        <v>21.22602640110147</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.1491889149812</v>
+        <v>10.08782166426302</v>
       </c>
       <c r="C13">
-        <v>8.152567807704648</v>
+        <v>6.27877235825897</v>
       </c>
       <c r="D13">
-        <v>9.275066103312005</v>
+        <v>6.585661357099984</v>
       </c>
       <c r="E13">
-        <v>18.96920758882866</v>
+        <v>13.87651004148009</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.14838604240447</v>
+        <v>28.33953066431714</v>
       </c>
       <c r="H13">
-        <v>8.816511942889788</v>
+        <v>13.95237077184443</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.95868577566887</v>
+        <v>9.132401554331308</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.65956557623396</v>
+        <v>14.27952414292283</v>
       </c>
       <c r="N13">
-        <v>10.90587270675427</v>
+        <v>18.16962462126352</v>
       </c>
       <c r="O13">
-        <v>15.26506147232216</v>
+        <v>21.22728642428166</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.01075651319478</v>
+        <v>10.03144025833098</v>
       </c>
       <c r="C14">
-        <v>8.103936459404951</v>
+        <v>6.258176090843098</v>
       </c>
       <c r="D14">
-        <v>9.190463201027724</v>
+        <v>6.559524842780351</v>
       </c>
       <c r="E14">
-        <v>18.78511655468447</v>
+        <v>13.82742686476686</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.99883672155154</v>
+        <v>28.32464533568132</v>
       </c>
       <c r="H14">
-        <v>8.811077302521499</v>
+        <v>13.95760549073677</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.85161406710908</v>
+        <v>9.080123421151225</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.49596994082149</v>
+        <v>14.23939108219135</v>
       </c>
       <c r="N14">
-        <v>10.94748722880556</v>
+        <v>18.18041817064782</v>
       </c>
       <c r="O14">
-        <v>15.22385989154887</v>
+        <v>21.23151464850927</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.92542777479317</v>
+        <v>9.996769296098481</v>
       </c>
       <c r="C15">
-        <v>8.074015294600715</v>
+        <v>6.245513965136034</v>
       </c>
       <c r="D15">
-        <v>9.138328228436771</v>
+        <v>6.543493288325031</v>
       </c>
       <c r="E15">
-        <v>18.67180708165019</v>
+        <v>13.79735684782017</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.90752069427677</v>
+        <v>28.3157000163969</v>
       </c>
       <c r="H15">
-        <v>8.807899149934967</v>
+        <v>13.96085601653399</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.78565206212063</v>
+        <v>9.047922481200587</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.39520290478005</v>
+        <v>14.21481129673739</v>
       </c>
       <c r="N15">
-        <v>10.9730077101923</v>
+        <v>18.1870616739187</v>
       </c>
       <c r="O15">
-        <v>15.19891191477212</v>
+        <v>21.23419599052797</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.42821458876781</v>
+        <v>9.796054708735879</v>
       </c>
       <c r="C16">
-        <v>7.900524116889174</v>
+        <v>6.172254197176015</v>
       </c>
       <c r="D16">
-        <v>8.834736015186754</v>
+        <v>6.451312296857297</v>
       </c>
       <c r="E16">
-        <v>18.01398847963532</v>
+        <v>13.62501387789531</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.38869789758963</v>
+        <v>28.26708801544562</v>
       </c>
       <c r="H16">
-        <v>8.791954043143397</v>
+        <v>13.98015932142826</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.40186221054177</v>
+        <v>8.860668953281122</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.8091106894806</v>
+        <v>14.07403859572887</v>
       </c>
       <c r="N16">
-        <v>11.11974658877361</v>
+        <v>18.22562641564167</v>
       </c>
       <c r="O16">
-        <v>15.06033417012729</v>
+        <v>21.25096218814293</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.11581601603534</v>
+        <v>9.67116980986869</v>
       </c>
       <c r="C17">
-        <v>7.79230307703072</v>
+        <v>6.126701645094249</v>
       </c>
       <c r="D17">
-        <v>8.644155718986235</v>
+        <v>6.394517706691953</v>
       </c>
       <c r="E17">
-        <v>17.60277791807049</v>
+        <v>13.51932652586571</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.07448711105672</v>
+        <v>28.23963885878987</v>
       </c>
       <c r="H17">
-        <v>8.784149574328612</v>
+        <v>13.99260410461115</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.16125423628906</v>
+        <v>8.743390212657909</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.44179843916071</v>
+        <v>13.98779809468738</v>
       </c>
       <c r="N17">
-        <v>11.2102317162087</v>
+        <v>18.24972593224011</v>
       </c>
       <c r="O17">
-        <v>14.97918919790836</v>
+        <v>21.2624963468777</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.9334103991157</v>
+        <v>9.598719040367341</v>
       </c>
       <c r="C18">
-        <v>7.729406931672174</v>
+        <v>6.100282110326568</v>
       </c>
       <c r="D18">
-        <v>8.532934277047524</v>
+        <v>6.361774316483286</v>
       </c>
       <c r="E18">
-        <v>17.36341250941508</v>
+        <v>13.458576878933</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.89528993074562</v>
+        <v>28.22472575515657</v>
       </c>
       <c r="H18">
-        <v>8.780369119704149</v>
+        <v>13.99998345160321</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.02096546348506</v>
+        <v>8.675061317089645</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.22765543835122</v>
+        <v>13.93825612504971</v>
       </c>
       <c r="N18">
-        <v>11.26245797160612</v>
+        <v>18.26374988095339</v>
       </c>
       <c r="O18">
-        <v>14.9339184506025</v>
+        <v>21.26958890655853</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.87118233679684</v>
+        <v>9.574084290638107</v>
       </c>
       <c r="C19">
-        <v>7.7080004682838</v>
+        <v>6.091299824601268</v>
       </c>
       <c r="D19">
-        <v>8.494999958188757</v>
+        <v>6.350676083193194</v>
       </c>
       <c r="E19">
-        <v>17.28187535843076</v>
+        <v>13.43801712133501</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.83488258852525</v>
+        <v>28.21982696056774</v>
       </c>
       <c r="H19">
-        <v>8.779209084331756</v>
+        <v>14.0025199937914</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.97314037992261</v>
+        <v>8.651777392370883</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.15465459722353</v>
+        <v>13.92149426806867</v>
       </c>
       <c r="N19">
-        <v>11.28017304735509</v>
+        <v>18.26852610128028</v>
       </c>
       <c r="O19">
-        <v>14.91882936282875</v>
+        <v>21.2720690127823</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.14935285005626</v>
+        <v>9.684528773987628</v>
       </c>
       <c r="C20">
-        <v>7.803890871462384</v>
+        <v>6.131573569768703</v>
       </c>
       <c r="D20">
-        <v>8.664609148375298</v>
+        <v>6.400571822782187</v>
       </c>
       <c r="E20">
-        <v>17.64684601847524</v>
+        <v>13.53057365209039</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.10777794427074</v>
+        <v>28.24247037939865</v>
       </c>
       <c r="H20">
-        <v>8.784906640441907</v>
+        <v>13.99125641596358</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.18706377697215</v>
+        <v>8.75596536039936</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.48119650405242</v>
+        <v>13.99697259835567</v>
       </c>
       <c r="N20">
-        <v>11.20058085732871</v>
+        <v>18.24714368317634</v>
       </c>
       <c r="O20">
-        <v>14.98768169289837</v>
+        <v>21.26122106079432</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.05152886323769</v>
+        <v>10.04802924738365</v>
       </c>
       <c r="C21">
-        <v>8.118248427112878</v>
+        <v>6.264235393846778</v>
       </c>
       <c r="D21">
-        <v>9.215378341820946</v>
+        <v>6.567206463341131</v>
       </c>
       <c r="E21">
-        <v>18.83930263820092</v>
+        <v>13.84184498850991</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.04270328122385</v>
+        <v>28.32898161474754</v>
       </c>
       <c r="H21">
-        <v>8.812642075814782</v>
+        <v>13.95605873404407</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.8831422838836</v>
+        <v>9.095516145326995</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.54413851293177</v>
+        <v>14.25117863165137</v>
       </c>
       <c r="N21">
-        <v>10.93525776492312</v>
+        <v>18.17724114709519</v>
       </c>
       <c r="O21">
-        <v>15.23590142738709</v>
+        <v>21.23025366003331</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.61717894464033</v>
+        <v>10.27958578907657</v>
       </c>
       <c r="C22">
-        <v>8.317762803018365</v>
+        <v>6.348878513634759</v>
       </c>
       <c r="D22">
-        <v>9.561287314651759</v>
+        <v>6.675154027711804</v>
       </c>
       <c r="E22">
-        <v>19.59400632170209</v>
+        <v>14.04511334494828</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.66667438384391</v>
+        <v>28.39324514309727</v>
       </c>
       <c r="H22">
-        <v>8.837465643691873</v>
+        <v>13.935028975371</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.32117466622868</v>
+        <v>9.309444446179576</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.21370944700638</v>
+        <v>14.41749262005115</v>
       </c>
       <c r="N22">
-        <v>10.76324239668605</v>
+        <v>18.13299541744779</v>
       </c>
       <c r="O22">
-        <v>15.41101833273296</v>
+        <v>21.21410581125961</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.31746085388972</v>
+        <v>10.15657182916806</v>
       </c>
       <c r="C23">
-        <v>8.211827411786585</v>
+        <v>6.303896390487622</v>
       </c>
       <c r="D23">
-        <v>9.377942989820413</v>
+        <v>6.617640880736186</v>
       </c>
       <c r="E23">
-        <v>19.19342363094676</v>
+        <v>13.93666456023246</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.33249479530799</v>
+        <v>28.35824346985288</v>
       </c>
       <c r="H23">
-        <v>8.823585173005682</v>
+        <v>13.94607223978249</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.08893291016863</v>
+        <v>9.196007109557582</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.85862115786262</v>
+        <v>14.32872930521067</v>
       </c>
       <c r="N23">
-        <v>10.85493469592887</v>
+        <v>18.15647884736507</v>
       </c>
       <c r="O23">
-        <v>15.31635669261084</v>
+        <v>21.22234950178068</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.13419958258897</v>
+        <v>9.678491213915844</v>
       </c>
       <c r="C24">
-        <v>7.798654140988277</v>
+        <v>6.129371690185085</v>
       </c>
       <c r="D24">
-        <v>8.655367308315327</v>
+        <v>6.397835038548674</v>
       </c>
       <c r="E24">
-        <v>17.62693204213503</v>
+        <v>13.5254887849773</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.09272264440768</v>
+        <v>28.24118754512934</v>
       </c>
       <c r="H24">
-        <v>8.784562174743609</v>
+        <v>13.99186500616114</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.17540138854042</v>
+        <v>8.750282948767056</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.46339389581091</v>
+        <v>13.99282468008543</v>
       </c>
       <c r="N24">
-        <v>11.20494336915628</v>
+        <v>18.24831059202186</v>
       </c>
       <c r="O24">
-        <v>14.98383794037715</v>
+        <v>21.26179618043134</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.75366026016442</v>
+        <v>9.139463219636912</v>
       </c>
       <c r="C25">
-        <v>7.328260072027867</v>
+        <v>5.932824024010191</v>
       </c>
       <c r="D25">
-        <v>7.814468761123761</v>
+        <v>6.1579928936127</v>
       </c>
       <c r="E25">
-        <v>15.8346982756714</v>
+        <v>13.0837830997991</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.81434127030751</v>
+        <v>28.14839283379655</v>
       </c>
       <c r="H25">
-        <v>8.769330894353384</v>
+        <v>14.04972442792112</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.11754537253434</v>
+        <v>8.236283570269817</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.84829342607365</v>
+        <v>13.63306800534306</v>
       </c>
       <c r="N25">
-        <v>11.58954428721419</v>
+        <v>18.35358537977885</v>
       </c>
       <c r="O25">
-        <v>14.6784572816349</v>
+        <v>21.32186387300137</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.725601455334775</v>
+        <v>12.64617143788786</v>
       </c>
       <c r="C2">
-        <v>5.781599240996697</v>
+        <v>6.961724513314165</v>
       </c>
       <c r="D2">
-        <v>5.980611105102169</v>
+        <v>7.141100361087235</v>
       </c>
       <c r="E2">
-        <v>12.76293396798647</v>
+        <v>14.60424442857405</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>28.10905514645271</v>
+        <v>22.92748387441026</v>
       </c>
       <c r="H2">
-        <v>14.09959807047985</v>
+        <v>8.779142064327164</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.936820453847593</v>
+        <v>11.27670872306408</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.37237366917323</v>
+        <v>14.56204250523429</v>
       </c>
       <c r="N2">
-        <v>18.43650546021523</v>
+        <v>11.87997567708241</v>
       </c>
       <c r="O2">
-        <v>21.38109274803454</v>
+        <v>14.49682537569222</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.436408262567735</v>
+        <v>11.8382945215355</v>
       </c>
       <c r="C3">
-        <v>5.675404925169916</v>
+        <v>6.701478093278427</v>
       </c>
       <c r="D3">
-        <v>5.860764096022106</v>
+        <v>6.650282007822665</v>
       </c>
       <c r="E3">
-        <v>12.54969614024091</v>
+        <v>13.73590561568877</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>28.10051850850035</v>
+        <v>22.36228885711659</v>
       </c>
       <c r="H3">
-        <v>14.13792960440271</v>
+        <v>8.797880054002192</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.740783164299862</v>
+        <v>10.66876188157813</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.19933193705617</v>
+        <v>13.62885643407591</v>
       </c>
       <c r="N3">
-        <v>18.49610281837917</v>
+        <v>12.0818693043968</v>
       </c>
       <c r="O3">
-        <v>21.43055067625185</v>
+        <v>14.39919060275109</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.255269698877035</v>
+        <v>11.31385286752983</v>
       </c>
       <c r="C4">
-        <v>5.60850043691454</v>
+        <v>6.536165370851821</v>
       </c>
       <c r="D4">
-        <v>5.787659500711089</v>
+        <v>6.331706258340556</v>
       </c>
       <c r="E4">
-        <v>12.42134070929188</v>
+        <v>13.18681223863881</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>28.10421294811156</v>
+        <v>22.03349988081004</v>
       </c>
       <c r="H4">
-        <v>14.16369894441982</v>
+        <v>8.815013228954216</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.619158236679636</v>
+        <v>10.27699421932343</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.09521608548949</v>
+        <v>13.02532752153686</v>
       </c>
       <c r="N4">
-        <v>18.53438309409822</v>
+        <v>12.20849768202211</v>
       </c>
       <c r="O4">
-        <v>21.46549919259889</v>
+        <v>14.35124636748331</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.180676287135439</v>
+        <v>11.09298633677484</v>
       </c>
       <c r="C5">
-        <v>5.580829208160272</v>
+        <v>6.467467732917669</v>
       </c>
       <c r="D5">
-        <v>5.758036618526384</v>
+        <v>6.206591000508803</v>
       </c>
       <c r="E5">
-        <v>12.36975729847239</v>
+        <v>12.95925974563402</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>28.10796369685828</v>
+        <v>21.90417666792302</v>
       </c>
       <c r="H5">
-        <v>14.1747615566878</v>
+        <v>8.823361415910441</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.569353132714046</v>
+        <v>10.1127617333393</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.05337536051415</v>
+        <v>12.77168245792558</v>
       </c>
       <c r="N5">
-        <v>18.55040815924673</v>
+        <v>12.26079281254932</v>
       </c>
       <c r="O5">
-        <v>21.48089063792745</v>
+        <v>14.33463973130346</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.168246831190698</v>
+        <v>11.05587948567792</v>
       </c>
       <c r="C6">
-        <v>5.576210451798395</v>
+        <v>6.455981942450363</v>
       </c>
       <c r="D6">
-        <v>5.753129271597144</v>
+        <v>6.18744434928731</v>
       </c>
       <c r="E6">
-        <v>12.36123772553355</v>
+        <v>12.92125303369566</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>28.10872202279387</v>
+        <v>21.88298595072472</v>
       </c>
       <c r="H6">
-        <v>14.17663239393658</v>
+        <v>8.824828731224054</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.561070652270621</v>
+        <v>10.0852164227411</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.04646468462045</v>
+        <v>12.72909933068308</v>
       </c>
       <c r="N6">
-        <v>18.55309484807864</v>
+        <v>12.26951888809599</v>
       </c>
       <c r="O6">
-        <v>21.48351573922007</v>
+        <v>14.33205657761863</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.254266689710308</v>
+        <v>11.31090315195277</v>
       </c>
       <c r="C7">
-        <v>5.608128873583142</v>
+        <v>6.535244200441372</v>
       </c>
       <c r="D7">
-        <v>5.787259254574809</v>
+        <v>6.329914344511923</v>
       </c>
       <c r="E7">
-        <v>12.42064201346161</v>
+        <v>13.18375842159459</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>28.10425444496226</v>
+        <v>22.03173682659042</v>
       </c>
       <c r="H7">
-        <v>14.16384586597534</v>
+        <v>8.815120347537059</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.618487426846535</v>
+        <v>10.27479778505868</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.09464936207989</v>
+        <v>13.02193797987229</v>
       </c>
       <c r="N7">
-        <v>18.5345974890533</v>
+        <v>12.20920011674898</v>
       </c>
       <c r="O7">
-        <v>21.46570211540201</v>
+        <v>14.35101065643396</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.626698375533124</v>
+        <v>12.37350167655195</v>
       </c>
       <c r="C8">
-        <v>5.745348481481644</v>
+        <v>6.873168983811961</v>
       </c>
       <c r="D8">
-        <v>5.939215613333714</v>
+        <v>6.975420300094465</v>
       </c>
       <c r="E8">
-        <v>12.68892097149961</v>
+        <v>14.30825954631219</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>28.10425654818285</v>
+        <v>22.72886750534572</v>
       </c>
       <c r="H8">
-        <v>14.11235104065991</v>
+        <v>8.784405161714421</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.869531180324733</v>
+        <v>11.07095878114706</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.31229725808578</v>
+        <v>14.24660457090766</v>
       </c>
       <c r="N8">
-        <v>18.45670520598119</v>
+        <v>11.94904966606006</v>
       </c>
       <c r="O8">
-        <v>21.39719368448924</v>
+        <v>14.46061859002838</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.323899034017421</v>
+        <v>14.2327490384495</v>
       </c>
       <c r="C9">
-        <v>6.000086513129707</v>
+        <v>7.489932920319098</v>
       </c>
       <c r="D9">
-        <v>6.239016172089172</v>
+        <v>8.106061260082612</v>
       </c>
       <c r="E9">
-        <v>13.23208559159682</v>
+        <v>16.4488984815016</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.17515806936498</v>
+        <v>24.23677325833345</v>
       </c>
       <c r="H9">
-        <v>14.02910418788099</v>
+        <v>8.771057452757624</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.413751216739517</v>
+        <v>12.48355228700672</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.75373591995683</v>
+        <v>16.40727692757837</v>
       </c>
       <c r="N9">
-        <v>18.317287354759</v>
+        <v>11.45893989339139</v>
       </c>
       <c r="O9">
-        <v>21.29929489277364</v>
+        <v>14.77442592075955</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.810219128045244</v>
+        <v>15.46349343700258</v>
       </c>
       <c r="C10">
-        <v>6.177422010430123</v>
+        <v>7.912784213947731</v>
       </c>
       <c r="D10">
-        <v>6.457781602760402</v>
+        <v>8.856265912731578</v>
       </c>
       <c r="E10">
-        <v>13.63707703587992</v>
+        <v>18.06052689822766</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.27033850416893</v>
+        <v>25.42475624648374</v>
       </c>
       <c r="H10">
-        <v>13.97876929792985</v>
+        <v>8.792941902984062</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.87393216611496</v>
+        <v>13.42906005783734</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.08388626544473</v>
+        <v>17.85063557798298</v>
       </c>
       <c r="N10">
-        <v>18.22289849158818</v>
+        <v>11.10944546103899</v>
       </c>
       <c r="O10">
-        <v>21.24970821123426</v>
+        <v>15.06978476141835</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.02481811808395</v>
+        <v>15.99447079878005</v>
       </c>
       <c r="C11">
-        <v>6.255757442531566</v>
+        <v>8.09822249786054</v>
       </c>
       <c r="D11">
-        <v>6.556460410622266</v>
+        <v>9.180512000782816</v>
       </c>
       <c r="E11">
-        <v>13.82167681742981</v>
+        <v>18.76348091255558</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.32292448578382</v>
+        <v>25.98135720800324</v>
       </c>
       <c r="H11">
-        <v>13.95822447464865</v>
+        <v>8.810460637972707</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.073976219844202</v>
+        <v>13.83902250607086</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.23469047135316</v>
+        <v>18.47673345978432</v>
       </c>
       <c r="N11">
-        <v>18.18168670461345</v>
+        <v>10.95236570220321</v>
       </c>
       <c r="O11">
-        <v>21.23202198067202</v>
+        <v>15.21907195776859</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.10505548135608</v>
+        <v>16.19142384228591</v>
       </c>
       <c r="C12">
-        <v>6.28506927985956</v>
+        <v>8.167426605117916</v>
       </c>
       <c r="D12">
-        <v>6.593666567675059</v>
+        <v>9.300883483090642</v>
       </c>
       <c r="E12">
-        <v>13.8915580264062</v>
+        <v>19.02543813374065</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.34416371588687</v>
+        <v>26.19435692149185</v>
       </c>
       <c r="H12">
-        <v>13.9507832329556</v>
+        <v>8.818238945422891</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.148360144919229</v>
+        <v>13.99136699821811</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.29183106401439</v>
+        <v>18.70950663062792</v>
       </c>
       <c r="N12">
-        <v>18.16632777059509</v>
+        <v>10.89312415389555</v>
       </c>
       <c r="O12">
-        <v>21.22602640110147</v>
+        <v>15.27781108364642</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.08782166426302</v>
+        <v>16.14918891498122</v>
       </c>
       <c r="C13">
-        <v>6.27877235825897</v>
+        <v>8.15256780770466</v>
       </c>
       <c r="D13">
-        <v>6.585661357099984</v>
+        <v>9.275066103312035</v>
       </c>
       <c r="E13">
-        <v>13.87651004148009</v>
+        <v>18.96920758882873</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.33953066431714</v>
+        <v>26.14838604240448</v>
       </c>
       <c r="H13">
-        <v>13.95237077184443</v>
+        <v>8.816511942889699</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.132401554331308</v>
+        <v>13.95868577566889</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.27952414292283</v>
+        <v>18.65956557623403</v>
       </c>
       <c r="N13">
-        <v>18.16962462126352</v>
+        <v>10.90587270675424</v>
       </c>
       <c r="O13">
-        <v>21.22728642428166</v>
+        <v>15.26506147232211</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.03144025833098</v>
+        <v>16.01075651319479</v>
       </c>
       <c r="C14">
-        <v>6.258176090843098</v>
+        <v>8.103936459405126</v>
       </c>
       <c r="D14">
-        <v>6.559524842780351</v>
+        <v>9.19046320102769</v>
       </c>
       <c r="E14">
-        <v>13.82742686476686</v>
+        <v>18.78511655468447</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.32464533568132</v>
+        <v>25.99883672155157</v>
       </c>
       <c r="H14">
-        <v>13.95760549073677</v>
+        <v>8.811077302521412</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.080123421151225</v>
+        <v>13.85161406710915</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.23939108219135</v>
+        <v>18.49596994082153</v>
       </c>
       <c r="N14">
-        <v>18.18041817064782</v>
+        <v>10.94748722880556</v>
       </c>
       <c r="O14">
-        <v>21.23151464850927</v>
+        <v>15.22385989154881</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.996769296098481</v>
+        <v>15.92542777479321</v>
       </c>
       <c r="C15">
-        <v>6.245513965136034</v>
+        <v>8.074015294600889</v>
       </c>
       <c r="D15">
-        <v>6.543493288325031</v>
+        <v>9.13832822843675</v>
       </c>
       <c r="E15">
-        <v>13.79735684782017</v>
+        <v>18.67180708165018</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.3157000163969</v>
+        <v>25.9075206942767</v>
       </c>
       <c r="H15">
-        <v>13.96085601653399</v>
+        <v>8.807899149934883</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.047922481200587</v>
+        <v>13.78565206212066</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.21481129673739</v>
+        <v>18.3952029047801</v>
       </c>
       <c r="N15">
-        <v>18.1870616739187</v>
+        <v>10.97300771019223</v>
       </c>
       <c r="O15">
-        <v>21.23419599052797</v>
+        <v>15.19891191477199</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.796054708735879</v>
+        <v>15.42821458876779</v>
       </c>
       <c r="C16">
-        <v>6.172254197176015</v>
+        <v>7.900524116889264</v>
       </c>
       <c r="D16">
-        <v>6.451312296857297</v>
+        <v>8.834736015186717</v>
       </c>
       <c r="E16">
-        <v>13.62501387789531</v>
+        <v>18.01398847963529</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>28.26708801544562</v>
+        <v>25.38869789758965</v>
       </c>
       <c r="H16">
-        <v>13.98015932142826</v>
+        <v>8.791954043143292</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.860668953281122</v>
+        <v>13.40186221054176</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.07403859572887</v>
+        <v>17.80911068948058</v>
       </c>
       <c r="N16">
-        <v>18.22562641564167</v>
+        <v>11.11974658877361</v>
       </c>
       <c r="O16">
-        <v>21.25096218814293</v>
+        <v>15.06033417012727</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.67116980986869</v>
+        <v>15.11581601603542</v>
       </c>
       <c r="C17">
-        <v>6.126701645094249</v>
+        <v>7.792303077030708</v>
       </c>
       <c r="D17">
-        <v>6.394517706691953</v>
+        <v>8.644155718986275</v>
       </c>
       <c r="E17">
-        <v>13.51932652586571</v>
+        <v>17.60277791807048</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.23963885878987</v>
+        <v>25.07448711105676</v>
       </c>
       <c r="H17">
-        <v>13.99260410461115</v>
+        <v>8.784149574328616</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.743390212657909</v>
+        <v>13.16125423628909</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.98779809468738</v>
+        <v>17.4417984391607</v>
       </c>
       <c r="N17">
-        <v>18.24972593224011</v>
+        <v>11.21023171620867</v>
       </c>
       <c r="O17">
-        <v>21.2624963468777</v>
+        <v>14.97918919790837</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.598719040367341</v>
+        <v>14.93341039911574</v>
       </c>
       <c r="C18">
-        <v>6.100282110326568</v>
+        <v>7.729406931672288</v>
       </c>
       <c r="D18">
-        <v>6.361774316483286</v>
+        <v>8.532934277047541</v>
       </c>
       <c r="E18">
-        <v>13.458576878933</v>
+        <v>17.36341250941506</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>28.22472575515657</v>
+        <v>24.89528993074551</v>
       </c>
       <c r="H18">
-        <v>13.99998345160321</v>
+        <v>8.780369119704092</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.675061317089645</v>
+        <v>13.02096546348509</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.93825612504971</v>
+        <v>17.22765543835124</v>
       </c>
       <c r="N18">
-        <v>18.26374988095339</v>
+        <v>11.26245797160603</v>
       </c>
       <c r="O18">
-        <v>21.26958890655853</v>
+        <v>14.93391845060238</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.574084290638107</v>
+        <v>14.8711823367969</v>
       </c>
       <c r="C19">
-        <v>6.091299824601268</v>
+        <v>7.7080004682838</v>
       </c>
       <c r="D19">
-        <v>6.350676083193194</v>
+        <v>8.494999958188803</v>
       </c>
       <c r="E19">
-        <v>13.43801712133501</v>
+        <v>17.28187535843081</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.21982696056774</v>
+        <v>24.83488258852526</v>
       </c>
       <c r="H19">
-        <v>14.0025199937914</v>
+        <v>8.779209084331718</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.651777392370883</v>
+        <v>12.97314037992259</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.92149426806867</v>
+        <v>17.15465459722355</v>
       </c>
       <c r="N19">
-        <v>18.26852610128028</v>
+        <v>11.28017304735505</v>
       </c>
       <c r="O19">
-        <v>21.2720690127823</v>
+        <v>14.9188293628287</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.684528773987628</v>
+        <v>15.1493528500563</v>
       </c>
       <c r="C20">
-        <v>6.131573569768703</v>
+        <v>7.803890871462306</v>
       </c>
       <c r="D20">
-        <v>6.400571822782187</v>
+        <v>8.664609148375204</v>
       </c>
       <c r="E20">
-        <v>13.53057365209039</v>
+        <v>17.64684601847523</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.24247037939865</v>
+        <v>25.10777794427063</v>
       </c>
       <c r="H20">
-        <v>13.99125641596358</v>
+        <v>8.784906640441907</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.75596536039936</v>
+        <v>13.18706377697221</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.99697259835567</v>
+        <v>17.48119650405244</v>
       </c>
       <c r="N20">
-        <v>18.24714368317634</v>
+        <v>11.20058085732871</v>
       </c>
       <c r="O20">
-        <v>21.26122106079432</v>
+        <v>14.98768169289831</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.04802924738365</v>
+        <v>16.05152886323768</v>
       </c>
       <c r="C21">
-        <v>6.264235393846778</v>
+        <v>8.118248427112903</v>
       </c>
       <c r="D21">
-        <v>6.567206463341131</v>
+        <v>9.215378341820928</v>
       </c>
       <c r="E21">
-        <v>13.84184498850991</v>
+        <v>18.83930263820093</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.32898161474754</v>
+        <v>26.04270328122375</v>
       </c>
       <c r="H21">
-        <v>13.95605873404407</v>
+        <v>8.812642075814757</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.095516145326995</v>
+        <v>13.88314228388361</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.25117863165137</v>
+        <v>18.54413851293177</v>
       </c>
       <c r="N21">
-        <v>18.17724114709519</v>
+        <v>10.93525776492312</v>
       </c>
       <c r="O21">
-        <v>21.23025366003331</v>
+        <v>15.23590142738703</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.27958578907657</v>
+        <v>16.61717894464027</v>
       </c>
       <c r="C22">
-        <v>6.348878513634759</v>
+        <v>8.317762803018454</v>
       </c>
       <c r="D22">
-        <v>6.675154027711804</v>
+        <v>9.561287314651819</v>
       </c>
       <c r="E22">
-        <v>14.04511334494828</v>
+        <v>19.59400632170211</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.39324514309727</v>
+        <v>26.66667438384393</v>
       </c>
       <c r="H22">
-        <v>13.935028975371</v>
+        <v>8.837465643691912</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.309444446179576</v>
+        <v>14.32117466622865</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.41749262005115</v>
+        <v>19.21370944700638</v>
       </c>
       <c r="N22">
-        <v>18.13299541744779</v>
+        <v>10.76324239668608</v>
       </c>
       <c r="O22">
-        <v>21.21410581125961</v>
+        <v>15.41101833273301</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.15657182916806</v>
+        <v>16.31746085388973</v>
       </c>
       <c r="C23">
-        <v>6.303896390487622</v>
+        <v>8.211827411786661</v>
       </c>
       <c r="D23">
-        <v>6.617640880736186</v>
+        <v>9.377942989820347</v>
       </c>
       <c r="E23">
-        <v>13.93666456023246</v>
+        <v>19.19342363094674</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.35824346985288</v>
+        <v>26.33249479530793</v>
       </c>
       <c r="H23">
-        <v>13.94607223978249</v>
+        <v>8.823585173005632</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.196007109557582</v>
+        <v>14.08893291016867</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.32872930521067</v>
+        <v>18.85862115786262</v>
       </c>
       <c r="N23">
-        <v>18.15647884736507</v>
+        <v>10.85493469592883</v>
       </c>
       <c r="O23">
-        <v>21.22234950178068</v>
+        <v>15.31635669261079</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.678491213915844</v>
+        <v>15.13419958258902</v>
       </c>
       <c r="C24">
-        <v>6.129371690185085</v>
+        <v>7.798654140988343</v>
       </c>
       <c r="D24">
-        <v>6.397835038548674</v>
+        <v>8.655367308315212</v>
       </c>
       <c r="E24">
-        <v>13.5254887849773</v>
+        <v>17.62693204213496</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.24118754512934</v>
+        <v>25.09272264440758</v>
       </c>
       <c r="H24">
-        <v>13.99186500616114</v>
+        <v>8.784562174743598</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.750282948767056</v>
+        <v>13.17540138854049</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.99282468008543</v>
+        <v>17.4633938958109</v>
       </c>
       <c r="N24">
-        <v>18.24831059202186</v>
+        <v>11.20494336915631</v>
       </c>
       <c r="O24">
-        <v>21.26179618043134</v>
+        <v>14.98383794037708</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.139463219636912</v>
+        <v>13.75366026016441</v>
       </c>
       <c r="C25">
-        <v>5.932824024010191</v>
+        <v>7.328260072027692</v>
       </c>
       <c r="D25">
-        <v>6.1579928936127</v>
+        <v>7.814468761123748</v>
       </c>
       <c r="E25">
-        <v>13.0837830997991</v>
+        <v>15.83469827567138</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>28.14839283379655</v>
+        <v>23.81434127030744</v>
       </c>
       <c r="H25">
-        <v>14.04972442792112</v>
+        <v>8.769330894353434</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.236283570269817</v>
+        <v>12.11754537253431</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.63306800534306</v>
+        <v>15.84829342607358</v>
       </c>
       <c r="N25">
-        <v>18.35358537977885</v>
+        <v>11.58954428721413</v>
       </c>
       <c r="O25">
-        <v>21.32186387300137</v>
+        <v>14.67845728163491</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.64617143788786</v>
+        <v>20.95093654109035</v>
       </c>
       <c r="C2">
-        <v>6.961724513314165</v>
+        <v>13.61240694387059</v>
       </c>
       <c r="D2">
-        <v>7.141100361087235</v>
+        <v>7.948726389723188</v>
       </c>
       <c r="E2">
-        <v>14.60424442857405</v>
+        <v>7.088111229783875</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.92748387441026</v>
+        <v>50.88058214708885</v>
       </c>
       <c r="H2">
-        <v>8.779142064327164</v>
+        <v>3.91209400056514</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.244078808617754</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>15.38956420165816</v>
       </c>
       <c r="K2">
-        <v>11.27670872306408</v>
+        <v>24.33618198830177</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.08670671662205</v>
       </c>
       <c r="M2">
-        <v>14.56204250523429</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.87997567708241</v>
+        <v>7.825967280998299</v>
       </c>
       <c r="O2">
-        <v>14.49682537569222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.82774565251531</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.8382945215355</v>
+        <v>19.63284624008502</v>
       </c>
       <c r="C3">
-        <v>6.701478093278427</v>
+        <v>12.69644644266887</v>
       </c>
       <c r="D3">
-        <v>6.650282007822665</v>
+        <v>7.776783670182168</v>
       </c>
       <c r="E3">
-        <v>13.73590561568877</v>
+        <v>6.96231251158462</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.36228885711659</v>
+        <v>49.07396934628615</v>
       </c>
       <c r="H3">
-        <v>8.797880054002192</v>
+        <v>4.216521522913441</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.492120286205804</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>15.10635075068663</v>
       </c>
       <c r="K3">
-        <v>10.66876188157813</v>
+        <v>23.92702233237991</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4.946462125201841</v>
       </c>
       <c r="M3">
-        <v>13.62885643407591</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.0818693043968</v>
+        <v>7.604519329186253</v>
       </c>
       <c r="O3">
-        <v>14.39919060275109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.19890706694907</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.31385286752983</v>
+        <v>18.77981029335299</v>
       </c>
       <c r="C4">
-        <v>6.536165370851821</v>
+        <v>12.10615622716622</v>
       </c>
       <c r="D4">
-        <v>6.331706258340556</v>
+        <v>7.670579551341064</v>
       </c>
       <c r="E4">
-        <v>13.18681223863881</v>
+        <v>6.882698222141753</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.03349988081004</v>
+        <v>47.93757325103277</v>
       </c>
       <c r="H4">
-        <v>8.815013228954216</v>
+        <v>4.409393374128676</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.649776284292565</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>14.93194247115842</v>
       </c>
       <c r="K4">
-        <v>10.27699421932343</v>
+        <v>23.67312148519584</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.857741848726507</v>
       </c>
       <c r="M4">
-        <v>13.02532752153686</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.20849768202211</v>
+        <v>7.466312494095792</v>
       </c>
       <c r="O4">
-        <v>14.35124636748331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.79971222323671</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.09298633677484</v>
+        <v>18.42121697534986</v>
       </c>
       <c r="C5">
-        <v>6.467467732917669</v>
+        <v>11.86737224389262</v>
       </c>
       <c r="D5">
-        <v>6.206591000508803</v>
+        <v>7.626189157677475</v>
       </c>
       <c r="E5">
-        <v>12.95925974563402</v>
+        <v>6.848715876523729</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.90417666792302</v>
+        <v>47.4273485901973</v>
       </c>
       <c r="H5">
-        <v>8.823361415910441</v>
+        <v>4.490059049639858</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.717868667966556</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>14.85249752428696</v>
       </c>
       <c r="K5">
-        <v>10.1127617333393</v>
+        <v>23.55182683681394</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4.820945718686887</v>
       </c>
       <c r="M5">
-        <v>12.77168245792558</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.26079281254932</v>
+        <v>7.410404831272634</v>
       </c>
       <c r="O5">
-        <v>14.33463973130346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.63482322580419</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.05587948567792</v>
+        <v>18.36093348949882</v>
       </c>
       <c r="C6">
-        <v>6.455981942450363</v>
+        <v>11.83808323461923</v>
       </c>
       <c r="D6">
-        <v>6.18744434928731</v>
+        <v>7.617602607096262</v>
       </c>
       <c r="E6">
-        <v>12.92125303369566</v>
+        <v>6.841907110465336</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.88298595072472</v>
+        <v>47.29231729605867</v>
       </c>
       <c r="H6">
-        <v>8.824828731224054</v>
+        <v>4.504201211093828</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.732399065221013</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>14.82916722592215</v>
       </c>
       <c r="K6">
-        <v>10.0852164227411</v>
+        <v>23.51061291599554</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.81482220934613</v>
       </c>
       <c r="M6">
-        <v>12.72909933068308</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.26951888809599</v>
+        <v>7.402226571000722</v>
       </c>
       <c r="O6">
-        <v>14.33205657761863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.60836371642248</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.31090315195277</v>
+        <v>18.77475771950785</v>
       </c>
       <c r="C7">
-        <v>6.535244200441372</v>
+        <v>12.13167870744944</v>
       </c>
       <c r="D7">
-        <v>6.329914344511923</v>
+        <v>7.666710421656268</v>
       </c>
       <c r="E7">
-        <v>13.18375842159459</v>
+        <v>6.879195481392612</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.03173682659042</v>
+        <v>47.79595924116722</v>
       </c>
       <c r="H7">
-        <v>8.815120347537059</v>
+        <v>4.41223878875951</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.659037968788986</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>14.90337673701157</v>
       </c>
       <c r="K7">
-        <v>10.27479778505868</v>
+        <v>23.61436609603497</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.857331410651302</v>
       </c>
       <c r="M7">
-        <v>13.02193797987229</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.20920011674898</v>
+        <v>7.468634335608066</v>
       </c>
       <c r="O7">
-        <v>14.35101065643396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.80044568271291</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.37350167655195</v>
+        <v>20.50510630229554</v>
       </c>
       <c r="C8">
-        <v>6.873168983811961</v>
+        <v>13.33723203952096</v>
       </c>
       <c r="D8">
-        <v>6.975420300094465</v>
+        <v>7.885408405373598</v>
       </c>
       <c r="E8">
-        <v>14.30825954631219</v>
+        <v>7.041339196252514</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.72886750534572</v>
+        <v>50.09294949627127</v>
       </c>
       <c r="H8">
-        <v>8.784405161714421</v>
+        <v>4.01808287621177</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.339201305804958</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>15.25656772968659</v>
       </c>
       <c r="K8">
-        <v>11.07095878114706</v>
+        <v>24.12179136871477</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.039038741136554</v>
       </c>
       <c r="M8">
-        <v>14.24660457090766</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.94904966606006</v>
+        <v>7.754056736616273</v>
       </c>
       <c r="O8">
-        <v>14.46061859002838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.61734066391236</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.2327490384495</v>
+        <v>23.54984849980275</v>
       </c>
       <c r="C9">
-        <v>7.489932920319098</v>
+        <v>15.43697750396231</v>
       </c>
       <c r="D9">
-        <v>8.106061260082612</v>
+        <v>8.313371693713387</v>
       </c>
       <c r="E9">
-        <v>16.4488984815016</v>
+        <v>7.346491704750843</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.23677325833345</v>
+        <v>54.58895487054291</v>
       </c>
       <c r="H9">
-        <v>8.771057452757624</v>
+        <v>3.287688149877877</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.739439321643594</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>15.99077932729021</v>
       </c>
       <c r="K9">
-        <v>12.48355228700672</v>
+        <v>25.19255335187906</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.374799615593242</v>
       </c>
       <c r="M9">
-        <v>16.40727692757837</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.45893989339139</v>
+        <v>8.288800755055181</v>
       </c>
       <c r="O9">
-        <v>14.77442592075955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.10441814860592</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.46349343700258</v>
+        <v>25.58555688654281</v>
       </c>
       <c r="C10">
-        <v>7.912784213947731</v>
+        <v>16.89065577877093</v>
       </c>
       <c r="D10">
-        <v>8.856265912731578</v>
+        <v>8.565389886002967</v>
       </c>
       <c r="E10">
-        <v>18.06052689822766</v>
+        <v>7.529857772090054</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.42475624648374</v>
+        <v>57.10721607197997</v>
       </c>
       <c r="H10">
-        <v>8.792941902984062</v>
+        <v>2.806689920845278</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.336660985381018</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>16.3897629004193</v>
       </c>
       <c r="K10">
-        <v>13.42906005783734</v>
+        <v>25.69885965994298</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.62953013893063</v>
       </c>
       <c r="M10">
-        <v>17.85063557798298</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.10944546103899</v>
+        <v>8.594258877920556</v>
       </c>
       <c r="O10">
-        <v>15.06978476141835</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.07756609339659</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.99447079878005</v>
+        <v>26.5742947428663</v>
       </c>
       <c r="C11">
-        <v>8.09822249786054</v>
+        <v>17.8154287579204</v>
       </c>
       <c r="D11">
-        <v>9.180512000782816</v>
+        <v>8.20102208876291</v>
       </c>
       <c r="E11">
-        <v>18.76348091255558</v>
+        <v>7.446012852594168</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.98135720800324</v>
+        <v>53.21977697919098</v>
       </c>
       <c r="H11">
-        <v>8.810460637972707</v>
+        <v>3.481380106057743</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.248676398653457</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>15.48332852668372</v>
       </c>
       <c r="K11">
-        <v>13.83902250607086</v>
+        <v>23.82093362325529</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.948293121734845</v>
       </c>
       <c r="M11">
-        <v>18.47673345978432</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.95236570220321</v>
+        <v>8.099992269603257</v>
       </c>
       <c r="O11">
-        <v>15.21907195776859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.10182824157042</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.19142384228591</v>
+        <v>26.99479176410668</v>
       </c>
       <c r="C12">
-        <v>8.167426605117916</v>
+        <v>18.27216240825434</v>
       </c>
       <c r="D12">
-        <v>9.300883483090642</v>
+        <v>7.845955382199603</v>
       </c>
       <c r="E12">
-        <v>19.02543813374065</v>
+        <v>7.470484237881278</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.19435692149185</v>
+        <v>49.55012443399905</v>
       </c>
       <c r="H12">
-        <v>8.818238945422891</v>
+        <v>4.65973899986231</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.236034736618747</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>14.67146615381155</v>
       </c>
       <c r="K12">
-        <v>13.99136699821811</v>
+        <v>22.23067736364789</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.20717979874073</v>
       </c>
       <c r="M12">
-        <v>18.70950663062792</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.89312415389555</v>
+        <v>7.623352996205683</v>
       </c>
       <c r="O12">
-        <v>15.27781108364642</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.90945113002725</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.14918891498122</v>
+        <v>27.01727849273549</v>
       </c>
       <c r="C13">
-        <v>8.15256780770466</v>
+        <v>18.44446069703183</v>
       </c>
       <c r="D13">
-        <v>9.275066103312035</v>
+        <v>7.469509887045275</v>
       </c>
       <c r="E13">
-        <v>18.96920758882873</v>
+        <v>7.570520369407071</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.14838604240448</v>
+        <v>45.5707699694857</v>
       </c>
       <c r="H13">
-        <v>8.816511942889699</v>
+        <v>5.988496259020634</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.29528029802352</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.83780551714087</v>
       </c>
       <c r="K13">
-        <v>13.95868577566889</v>
+        <v>20.6824354506795</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.433203017690031</v>
       </c>
       <c r="M13">
-        <v>18.65956557623403</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.90587270675424</v>
+        <v>7.133402294782954</v>
       </c>
       <c r="O13">
-        <v>15.26506147232211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.53782440368476</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.01075651319479</v>
+        <v>26.85382445353579</v>
       </c>
       <c r="C14">
-        <v>8.103936459405126</v>
+        <v>18.44681617884755</v>
       </c>
       <c r="D14">
-        <v>9.19046320102769</v>
+        <v>7.196647549042858</v>
       </c>
       <c r="E14">
-        <v>18.78511655468447</v>
+        <v>7.687872274039457</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.99883672155157</v>
+        <v>42.58779639569783</v>
       </c>
       <c r="H14">
-        <v>8.811077302521412</v>
+        <v>6.961741914219576</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.371627362349189</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.23985065369121</v>
       </c>
       <c r="K14">
-        <v>13.85161406710915</v>
+        <v>19.6201950484898</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.580957490888315</v>
       </c>
       <c r="M14">
-        <v>18.49596994082153</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.94748722880556</v>
+        <v>6.78876338691948</v>
       </c>
       <c r="O14">
-        <v>15.22385989154881</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.19291051235396</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.92542777479321</v>
+        <v>26.72834840688149</v>
       </c>
       <c r="C15">
-        <v>8.074015294600889</v>
+        <v>18.39508411883746</v>
       </c>
       <c r="D15">
-        <v>9.13832822843675</v>
+        <v>7.12469813390644</v>
       </c>
       <c r="E15">
-        <v>18.67180708165018</v>
+        <v>7.715075818946771</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.9075206942767</v>
+        <v>41.75261174980776</v>
       </c>
       <c r="H15">
-        <v>8.807899149934883</v>
+        <v>7.195193255473212</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.410495854669971</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>13.08159895376975</v>
       </c>
       <c r="K15">
-        <v>13.78565206212066</v>
+        <v>19.35340882861711</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.605328531383911</v>
       </c>
       <c r="M15">
-        <v>18.3952029047801</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.97300771019223</v>
+        <v>6.701888415105054</v>
       </c>
       <c r="O15">
-        <v>15.19891191477199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.07160655623209</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.42821458876779</v>
+        <v>25.89901579473208</v>
       </c>
       <c r="C16">
-        <v>7.900524116889264</v>
+        <v>17.79990879532042</v>
       </c>
       <c r="D16">
-        <v>8.834736015186717</v>
+        <v>7.085089420590246</v>
       </c>
       <c r="E16">
-        <v>18.01398847963529</v>
+        <v>7.610318416595788</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.38869789758965</v>
+        <v>41.22623585576621</v>
       </c>
       <c r="H16">
-        <v>8.791954043143292</v>
+        <v>7.06029699760539</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.5756177016728</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>13.04901336015826</v>
       </c>
       <c r="K16">
-        <v>13.40186221054176</v>
+        <v>19.40532641206304</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.457943176703171</v>
       </c>
       <c r="M16">
-        <v>17.80911068948058</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.11974658877361</v>
+        <v>6.662156685209259</v>
       </c>
       <c r="O16">
-        <v>15.06033417012727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.72480843311431</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.11581601603542</v>
+        <v>25.33915151718546</v>
       </c>
       <c r="C17">
-        <v>7.792303077030708</v>
+        <v>17.33128319227448</v>
       </c>
       <c r="D17">
-        <v>8.644155718986275</v>
+        <v>7.20030790433751</v>
       </c>
       <c r="E17">
-        <v>17.60277791807048</v>
+        <v>7.455829022667684</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.07448711105676</v>
+        <v>42.4480386682983</v>
       </c>
       <c r="H17">
-        <v>8.784149574328616</v>
+        <v>6.422987054143452</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.662712085103195</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.34247007903768</v>
       </c>
       <c r="K17">
-        <v>13.16125423628909</v>
+        <v>19.9999980291185</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.259693465901939</v>
       </c>
       <c r="M17">
-        <v>17.4417984391607</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.21023171620867</v>
+        <v>6.814556081682229</v>
       </c>
       <c r="O17">
-        <v>14.97918919790837</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.6459358292896</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.93341039911574</v>
+        <v>24.95830014442547</v>
       </c>
       <c r="C18">
-        <v>7.729406931672288</v>
+        <v>16.90722029349514</v>
       </c>
       <c r="D18">
-        <v>8.532934277047541</v>
+        <v>7.468211805484364</v>
       </c>
       <c r="E18">
-        <v>17.36341250941506</v>
+        <v>7.300652598849307</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.89528993074551</v>
+        <v>45.41671875295614</v>
       </c>
       <c r="H18">
-        <v>8.780369119704092</v>
+        <v>5.333304124259962</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.679797690923371</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.97604389237088</v>
       </c>
       <c r="K18">
-        <v>13.02096546348509</v>
+        <v>21.20261356243877</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.010989836050773</v>
       </c>
       <c r="M18">
-        <v>17.22765543835124</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.26245797160603</v>
+        <v>7.160136592832387</v>
       </c>
       <c r="O18">
-        <v>14.93391845060238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.78705912228775</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.8711823367969</v>
+        <v>24.75389233562633</v>
       </c>
       <c r="C19">
-        <v>7.7080004682838</v>
+        <v>16.60311576328562</v>
       </c>
       <c r="D19">
-        <v>8.494999958188803</v>
+        <v>7.83990169580822</v>
       </c>
       <c r="E19">
-        <v>17.28187535843081</v>
+        <v>7.249337962636313</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.83488258852526</v>
+        <v>49.35053136769657</v>
       </c>
       <c r="H19">
-        <v>8.779209084331718</v>
+        <v>4.113802048749855</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.652276091964886</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>14.80343265646671</v>
       </c>
       <c r="K19">
-        <v>12.97314037992259</v>
+        <v>22.76744261013</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.770294821914455</v>
       </c>
       <c r="M19">
-        <v>17.15465459722355</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.28017304735505</v>
+        <v>7.655068185179801</v>
       </c>
       <c r="O19">
-        <v>14.9188293628287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.09323631844477</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.1493528500563</v>
+        <v>25.06464904199356</v>
       </c>
       <c r="C20">
-        <v>7.803890871462306</v>
+        <v>16.5872094059852</v>
       </c>
       <c r="D20">
-        <v>8.664609148375204</v>
+        <v>8.48805628638916</v>
       </c>
       <c r="E20">
-        <v>17.64684601847523</v>
+        <v>7.472589048469776</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.10777794427063</v>
+        <v>56.07148537285723</v>
       </c>
       <c r="H20">
-        <v>8.784906640441907</v>
+        <v>2.936214076175412</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.470240097329231</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>16.20195796942906</v>
       </c>
       <c r="K20">
-        <v>13.18706377697221</v>
+        <v>25.39320696142164</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.564832973034348</v>
       </c>
       <c r="M20">
-        <v>17.48119650405244</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.20058085732871</v>
+        <v>8.520081628181467</v>
       </c>
       <c r="O20">
-        <v>14.98768169289831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.83195568905056</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.05152886323768</v>
+        <v>26.53887622271072</v>
       </c>
       <c r="C21">
-        <v>8.118248427112903</v>
+        <v>17.59715531614824</v>
       </c>
       <c r="D21">
-        <v>9.215378341820928</v>
+        <v>8.76693259447997</v>
       </c>
       <c r="E21">
-        <v>18.83930263820093</v>
+        <v>7.658860078105293</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.04270328122375</v>
+        <v>58.91072609695704</v>
       </c>
       <c r="H21">
-        <v>8.812642075814757</v>
+        <v>2.528569465302017</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.149472049617805</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>16.71363884152608</v>
       </c>
       <c r="K21">
-        <v>13.88314228388361</v>
+        <v>26.18225000200514</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.726081218915746</v>
       </c>
       <c r="M21">
-        <v>18.54413851293177</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.93525776492312</v>
+        <v>8.863101133582992</v>
       </c>
       <c r="O21">
-        <v>15.23590142738703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>16.62450745168874</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.61717894464027</v>
+        <v>27.47324960404364</v>
       </c>
       <c r="C22">
-        <v>8.317762803018454</v>
+        <v>18.22513247986699</v>
       </c>
       <c r="D22">
-        <v>9.561287314651819</v>
+        <v>8.922995629362552</v>
       </c>
       <c r="E22">
-        <v>19.59400632170211</v>
+        <v>7.767370284660055</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.66667438384393</v>
+        <v>60.58107116217557</v>
       </c>
       <c r="H22">
-        <v>8.837465643691912</v>
+        <v>2.278260785767075</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.935868057625622</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>17.0148152600143</v>
       </c>
       <c r="K22">
-        <v>14.32117466622865</v>
+        <v>26.63788476560674</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.839502903667467</v>
       </c>
       <c r="M22">
-        <v>19.21370944700638</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.76324239668608</v>
+        <v>9.042500818060892</v>
       </c>
       <c r="O22">
-        <v>15.41101833273301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>17.10119829382928</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.31746085388973</v>
+        <v>26.97786994492711</v>
       </c>
       <c r="C23">
-        <v>8.211827411786661</v>
+        <v>17.86804882776367</v>
       </c>
       <c r="D23">
-        <v>9.377942989820347</v>
+        <v>8.843153917775663</v>
       </c>
       <c r="E23">
-        <v>19.19342363094674</v>
+        <v>7.7126484685843</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.33249479530793</v>
+        <v>59.82209620105542</v>
       </c>
       <c r="H23">
-        <v>8.823585173005632</v>
+        <v>2.40975982895426</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.037727557190014</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>16.88282343995526</v>
       </c>
       <c r="K23">
-        <v>14.08893291016867</v>
+        <v>26.45514272092145</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.778947086813078</v>
       </c>
       <c r="M23">
-        <v>18.85862115786262</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.85493469592883</v>
+        <v>8.943890020856173</v>
       </c>
       <c r="O23">
-        <v>15.31635669261079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.84565708196051</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.13419958258902</v>
+        <v>25.03023393393554</v>
       </c>
       <c r="C24">
-        <v>7.798654140988343</v>
+        <v>16.50668932720409</v>
       </c>
       <c r="D24">
-        <v>8.655367308315212</v>
+        <v>8.532715085751498</v>
       </c>
       <c r="E24">
-        <v>17.62693204213496</v>
+        <v>7.498076503878927</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.09272264440758</v>
+        <v>56.68204898364283</v>
       </c>
       <c r="H24">
-        <v>8.784562174743598</v>
+        <v>2.917952002617799</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.450615874568642</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>16.33601196741566</v>
       </c>
       <c r="K24">
-        <v>13.17540138854049</v>
+        <v>25.66374169721826</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.54613367698654</v>
       </c>
       <c r="M24">
-        <v>17.4633938958109</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.20494336915631</v>
+        <v>8.569001713258867</v>
       </c>
       <c r="O24">
-        <v>14.98383794037708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.85207675193916</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.75366026016441</v>
+        <v>22.76292354893266</v>
       </c>
       <c r="C25">
-        <v>7.328260072027692</v>
+        <v>14.93475842818167</v>
       </c>
       <c r="D25">
-        <v>7.814468761123748</v>
+        <v>8.193035046137554</v>
       </c>
       <c r="E25">
-        <v>15.83469827567138</v>
+        <v>7.260698055120892</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.81434127030744</v>
+        <v>53.18154312111124</v>
       </c>
       <c r="H25">
-        <v>8.769330894353434</v>
+        <v>3.483552365767516</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.912851152053572</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>15.74636636279081</v>
       </c>
       <c r="K25">
-        <v>12.11754537253431</v>
+        <v>24.80814905387052</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.286345203735473</v>
       </c>
       <c r="M25">
-        <v>15.84829342607358</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.58954428721413</v>
+        <v>8.151676486044611</v>
       </c>
       <c r="O25">
-        <v>14.67845728163491</v>
+        <v>14.71913001136091</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.95093654109035</v>
+        <v>20.88570348096075</v>
       </c>
       <c r="C2">
-        <v>13.61240694387059</v>
+        <v>14.62007388182819</v>
       </c>
       <c r="D2">
-        <v>7.948726389723188</v>
+        <v>7.849087556043528</v>
       </c>
       <c r="E2">
-        <v>7.088111229783875</v>
+        <v>7.055473582522649</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>50.88058214708885</v>
+        <v>44.68267318590649</v>
       </c>
       <c r="H2">
-        <v>3.91209400056514</v>
+        <v>3.671455692604966</v>
       </c>
       <c r="I2">
-        <v>4.244078808617754</v>
+        <v>3.961508256669728</v>
       </c>
       <c r="J2">
-        <v>15.38956420165816</v>
+        <v>14.12848838856644</v>
       </c>
       <c r="K2">
-        <v>24.33618198830177</v>
+        <v>21.45537992974119</v>
       </c>
       <c r="L2">
-        <v>5.08670671662205</v>
+        <v>16.7291639763403</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.12605175000905</v>
       </c>
       <c r="N2">
-        <v>7.825967280998299</v>
+        <v>5.13793594153392</v>
       </c>
       <c r="O2">
-        <v>13.82774565251531</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.122878078576731</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.90123635454412</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.63284624008502</v>
+        <v>19.55078381977436</v>
       </c>
       <c r="C3">
-        <v>12.69644644266887</v>
+        <v>13.5916916578361</v>
       </c>
       <c r="D3">
-        <v>7.776783670182168</v>
+        <v>7.699903150555654</v>
       </c>
       <c r="E3">
-        <v>6.96231251158462</v>
+        <v>6.957568433568004</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>49.07396934628615</v>
+        <v>43.5006751937938</v>
       </c>
       <c r="H3">
-        <v>4.216521522913441</v>
+        <v>3.944143436722765</v>
       </c>
       <c r="I3">
-        <v>4.492120286205804</v>
+        <v>4.174411748438794</v>
       </c>
       <c r="J3">
-        <v>15.10635075068663</v>
+        <v>13.90889440335056</v>
       </c>
       <c r="K3">
-        <v>23.92702233237991</v>
+        <v>21.29776800327606</v>
       </c>
       <c r="L3">
-        <v>4.946462125201841</v>
+        <v>16.70026274092064</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.93927095891194</v>
       </c>
       <c r="N3">
-        <v>7.604519329186253</v>
+        <v>5.002120101139538</v>
       </c>
       <c r="O3">
-        <v>13.19890706694907</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.898427995112992</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.24902551877213</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.77981029335299</v>
+        <v>18.68436980368965</v>
       </c>
       <c r="C4">
-        <v>12.10615622716622</v>
+        <v>12.92713190878334</v>
       </c>
       <c r="D4">
-        <v>7.670579551341064</v>
+        <v>7.608205081488041</v>
       </c>
       <c r="E4">
-        <v>6.882698222141753</v>
+        <v>6.895557366581942</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.93757325103277</v>
+        <v>42.76541753101041</v>
       </c>
       <c r="H4">
-        <v>4.409393374128676</v>
+        <v>4.117091239711968</v>
       </c>
       <c r="I4">
-        <v>4.649776284292565</v>
+        <v>4.310133666388762</v>
       </c>
       <c r="J4">
-        <v>14.93194247115842</v>
+        <v>13.77120116045031</v>
       </c>
       <c r="K4">
-        <v>23.67312148519584</v>
+        <v>21.19996302334784</v>
       </c>
       <c r="L4">
-        <v>4.857741848726507</v>
+        <v>16.67586313225457</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.84053723486229</v>
       </c>
       <c r="N4">
-        <v>7.466312494095792</v>
+        <v>4.916246504074195</v>
       </c>
       <c r="O4">
-        <v>12.79971222323671</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.758622310186686</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.83376164260249</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.42121697534986</v>
+        <v>18.31949107977194</v>
       </c>
       <c r="C5">
-        <v>11.86737224389262</v>
+        <v>12.65598349125613</v>
       </c>
       <c r="D5">
-        <v>7.626189157677475</v>
+        <v>7.570003882031904</v>
       </c>
       <c r="E5">
-        <v>6.848715876523729</v>
+        <v>6.869095816994678</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47.4273485901973</v>
+        <v>42.42896103662399</v>
       </c>
       <c r="H5">
-        <v>4.490059049639858</v>
+        <v>4.189445082225808</v>
       </c>
       <c r="I5">
-        <v>4.717868667966556</v>
+        <v>4.369524563044472</v>
       </c>
       <c r="J5">
-        <v>14.85249752428696</v>
+        <v>13.70727273478196</v>
       </c>
       <c r="K5">
-        <v>23.55182683681394</v>
+        <v>21.14586613294598</v>
       </c>
       <c r="L5">
-        <v>4.820945718686887</v>
+        <v>16.65225684598855</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.79521943059531</v>
       </c>
       <c r="N5">
-        <v>7.410404831272634</v>
+        <v>4.880693541582034</v>
       </c>
       <c r="O5">
-        <v>12.63482322580419</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.701995099513804</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.66177674118115</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36093348949882</v>
+        <v>18.25808614341657</v>
       </c>
       <c r="C6">
-        <v>11.83808323461923</v>
+        <v>12.62028636524471</v>
       </c>
       <c r="D6">
-        <v>7.617602607096262</v>
+        <v>7.562636317174899</v>
       </c>
       <c r="E6">
-        <v>6.841907110465336</v>
+        <v>6.863817799388455</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>47.29231729605867</v>
+        <v>42.33058127762875</v>
       </c>
       <c r="H6">
-        <v>4.504201211093828</v>
+        <v>4.202107170404599</v>
       </c>
       <c r="I6">
-        <v>4.732399065221013</v>
+        <v>4.383049830258611</v>
       </c>
       <c r="J6">
-        <v>14.82916722592215</v>
+        <v>13.68790229351999</v>
       </c>
       <c r="K6">
-        <v>23.51061291599554</v>
+        <v>21.11980574533388</v>
       </c>
       <c r="L6">
-        <v>4.81482220934613</v>
+        <v>16.6336167409656</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.77675313490677</v>
       </c>
       <c r="N6">
-        <v>7.402226571000722</v>
+        <v>4.874834066402086</v>
       </c>
       <c r="O6">
-        <v>12.60836371642248</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.693534874810534</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.63396949405198</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77475771950785</v>
+        <v>18.67960790133777</v>
       </c>
       <c r="C7">
-        <v>12.13167870744944</v>
+        <v>12.9371971554546</v>
       </c>
       <c r="D7">
-        <v>7.666710421656268</v>
+        <v>7.60558650746935</v>
       </c>
       <c r="E7">
-        <v>6.879195481392612</v>
+        <v>6.892530118564028</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.79595924116722</v>
+        <v>42.68994778917048</v>
       </c>
       <c r="H7">
-        <v>4.41223878875951</v>
+        <v>4.120510175651472</v>
       </c>
       <c r="I7">
-        <v>4.659037968788986</v>
+        <v>4.32129759698814</v>
       </c>
       <c r="J7">
-        <v>14.90337673701157</v>
+        <v>13.68660728144274</v>
       </c>
       <c r="K7">
-        <v>23.61436609603497</v>
+        <v>21.13048025279529</v>
       </c>
       <c r="L7">
-        <v>4.857331410651302</v>
+        <v>16.61735348770977</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.79401547041569</v>
       </c>
       <c r="N7">
-        <v>7.468634335608066</v>
+        <v>4.915182716006757</v>
       </c>
       <c r="O7">
-        <v>12.80044568271291</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.758907156876384</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.83325307432626</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.50510630229554</v>
+        <v>20.43582241581271</v>
       </c>
       <c r="C8">
-        <v>13.33723203952096</v>
+        <v>14.26597712555292</v>
       </c>
       <c r="D8">
-        <v>7.885408405373598</v>
+        <v>7.796408734301923</v>
       </c>
       <c r="E8">
-        <v>7.041339196252514</v>
+        <v>7.018118495362565</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>50.09294949627127</v>
+        <v>44.27338561599004</v>
       </c>
       <c r="H8">
-        <v>4.01808287621177</v>
+        <v>3.76916113477909</v>
       </c>
       <c r="I8">
-        <v>4.339201305804958</v>
+        <v>4.048732224613943</v>
       </c>
       <c r="J8">
-        <v>15.25656772968659</v>
+        <v>13.82864928144329</v>
       </c>
       <c r="K8">
-        <v>24.12179136871477</v>
+        <v>21.268689920131</v>
       </c>
       <c r="L8">
-        <v>5.039038741136554</v>
+        <v>16.61280773504751</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.96502559614878</v>
       </c>
       <c r="N8">
-        <v>7.754056736616273</v>
+        <v>5.089365983197349</v>
       </c>
       <c r="O8">
-        <v>13.61734066391236</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.044263032037104</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.68014935652925</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.54984849980275</v>
+        <v>23.50709516120183</v>
       </c>
       <c r="C9">
-        <v>15.43697750396231</v>
+        <v>16.61554230220132</v>
       </c>
       <c r="D9">
-        <v>8.313371693713387</v>
+        <v>8.170816934534498</v>
       </c>
       <c r="E9">
-        <v>7.346491704750843</v>
+        <v>7.255201858573168</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>54.58895487054291</v>
+        <v>47.32641211458564</v>
       </c>
       <c r="H9">
-        <v>3.287688149877877</v>
+        <v>3.116678496267252</v>
       </c>
       <c r="I9">
-        <v>3.739439321643594</v>
+        <v>3.534219639819194</v>
       </c>
       <c r="J9">
-        <v>15.99077932729021</v>
+        <v>14.34286930316864</v>
       </c>
       <c r="K9">
-        <v>25.19255335187906</v>
+        <v>21.69477728752129</v>
       </c>
       <c r="L9">
-        <v>5.374799615593242</v>
+        <v>16.68536693974657</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.53688584909688</v>
       </c>
       <c r="N9">
-        <v>8.288800755055181</v>
+        <v>5.413838382603423</v>
       </c>
       <c r="O9">
-        <v>15.10441814860592</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.587073011297122</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.21585613363078</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.58555688654281</v>
+        <v>25.55156630571995</v>
       </c>
       <c r="C10">
-        <v>16.89065577877093</v>
+        <v>18.1533291824369</v>
       </c>
       <c r="D10">
-        <v>8.565389886002967</v>
+        <v>8.39414291970359</v>
       </c>
       <c r="E10">
-        <v>7.529857772090054</v>
+        <v>7.39876090086066</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>57.10721607197997</v>
+        <v>49.24148749102886</v>
       </c>
       <c r="H10">
-        <v>2.806689920845278</v>
+        <v>2.694164839021531</v>
       </c>
       <c r="I10">
-        <v>3.336660985381018</v>
+        <v>3.195924742986741</v>
       </c>
       <c r="J10">
-        <v>16.3897629004193</v>
+        <v>14.28495374300168</v>
       </c>
       <c r="K10">
-        <v>25.69885965994298</v>
+        <v>21.69111553798117</v>
       </c>
       <c r="L10">
-        <v>5.62953013893063</v>
+        <v>16.47397189054643</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.78618219653352</v>
       </c>
       <c r="N10">
-        <v>8.594258877920556</v>
+        <v>5.658898833110258</v>
       </c>
       <c r="O10">
-        <v>16.07756609339659</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.887729445628906</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.2096858329915</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.5742947428663</v>
+        <v>26.54778911907169</v>
       </c>
       <c r="C11">
-        <v>17.8154287579204</v>
+        <v>18.8568417452362</v>
       </c>
       <c r="D11">
-        <v>8.20102208876291</v>
+        <v>8.054002020200585</v>
       </c>
       <c r="E11">
-        <v>7.446012852594168</v>
+        <v>7.367106409010608</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.21977697919098</v>
+        <v>46.50106661665009</v>
       </c>
       <c r="H11">
-        <v>3.481380106057743</v>
+        <v>3.40603345818249</v>
       </c>
       <c r="I11">
-        <v>3.248676398653457</v>
+        <v>3.129543057588267</v>
       </c>
       <c r="J11">
-        <v>15.48332852668372</v>
+        <v>12.92667934465488</v>
       </c>
       <c r="K11">
-        <v>23.82093362325529</v>
+        <v>19.96251673703335</v>
       </c>
       <c r="L11">
-        <v>5.948293121734845</v>
+        <v>15.11004459405499</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.56247160417974</v>
       </c>
       <c r="N11">
-        <v>8.099992269603257</v>
+        <v>5.983280801241591</v>
       </c>
       <c r="O11">
-        <v>16.10182824157042</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.35091453690446</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.21396776093014</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.99479176410668</v>
+        <v>26.97313113629983</v>
       </c>
       <c r="C12">
-        <v>18.27216240825434</v>
+        <v>19.14154319586137</v>
       </c>
       <c r="D12">
-        <v>7.845955382199603</v>
+        <v>7.721333088173582</v>
       </c>
       <c r="E12">
-        <v>7.470484237881278</v>
+        <v>7.432143088111854</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>49.55012443399905</v>
+        <v>43.75483187374024</v>
       </c>
       <c r="H12">
-        <v>4.65973899986231</v>
+        <v>4.603776876905727</v>
       </c>
       <c r="I12">
-        <v>3.236034736618747</v>
+        <v>3.117994675833355</v>
       </c>
       <c r="J12">
-        <v>14.67146615381155</v>
+        <v>12.05175590472123</v>
       </c>
       <c r="K12">
-        <v>22.23067736364789</v>
+        <v>18.68140425650641</v>
       </c>
       <c r="L12">
-        <v>6.20717979874073</v>
+        <v>14.15701439194741</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.59057111265481</v>
       </c>
       <c r="N12">
-        <v>7.623352996205683</v>
+        <v>6.245365260969853</v>
       </c>
       <c r="O12">
-        <v>15.90945113002725</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.845222750580412</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.00402096367157</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.01727849273549</v>
+        <v>26.99868322046825</v>
       </c>
       <c r="C13">
-        <v>18.44446069703183</v>
+        <v>19.18486833558319</v>
       </c>
       <c r="D13">
-        <v>7.469509887045275</v>
+        <v>7.366716295622249</v>
       </c>
       <c r="E13">
-        <v>7.570520369407071</v>
+        <v>7.570768821273988</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.5707699694857</v>
+        <v>40.52475245228993</v>
       </c>
       <c r="H13">
-        <v>5.988496259020634</v>
+        <v>5.937716175237726</v>
       </c>
       <c r="I13">
-        <v>3.29528029802352</v>
+        <v>3.163628458403192</v>
       </c>
       <c r="J13">
-        <v>13.83780551714087</v>
+        <v>11.5435062238485</v>
       </c>
       <c r="K13">
-        <v>20.6824354506795</v>
+        <v>17.63789956384179</v>
       </c>
       <c r="L13">
-        <v>6.433203017690031</v>
+        <v>13.42058594599891</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.74345229210868</v>
       </c>
       <c r="N13">
-        <v>7.133402294782954</v>
+        <v>6.476665660847798</v>
       </c>
       <c r="O13">
-        <v>15.53782440368476</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.336821860211407</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.6163746657503</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.85382445353579</v>
+        <v>26.83642566451995</v>
       </c>
       <c r="C14">
-        <v>18.44681617884755</v>
+        <v>19.11253657536568</v>
       </c>
       <c r="D14">
-        <v>7.196647549042858</v>
+        <v>7.109370827802786</v>
       </c>
       <c r="E14">
-        <v>7.687872274039457</v>
+        <v>7.713934993373253</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>42.58779639569783</v>
+        <v>38.00651240288948</v>
       </c>
       <c r="H14">
-        <v>6.961741914219576</v>
+        <v>6.910640719500992</v>
       </c>
       <c r="I14">
-        <v>3.371627362349189</v>
+        <v>3.224596210188805</v>
       </c>
       <c r="J14">
-        <v>13.23985065369121</v>
+        <v>11.32477731905847</v>
       </c>
       <c r="K14">
-        <v>19.6201950484898</v>
+        <v>17.00710540353413</v>
       </c>
       <c r="L14">
-        <v>6.580957490888315</v>
+        <v>12.98934213059632</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.20689099435431</v>
       </c>
       <c r="N14">
-        <v>6.78876338691948</v>
+        <v>6.628987907070337</v>
       </c>
       <c r="O14">
-        <v>15.19291051235396</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.983563167502601</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.26031215363443</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.72834840688149</v>
+        <v>26.71076356947008</v>
       </c>
       <c r="C15">
-        <v>18.39508411883746</v>
+        <v>19.04923859849378</v>
       </c>
       <c r="D15">
-        <v>7.12469813390644</v>
+        <v>7.041636986527454</v>
       </c>
       <c r="E15">
-        <v>7.715075818946771</v>
+        <v>7.749070119277402</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>41.75261174980776</v>
+        <v>37.26548468585706</v>
       </c>
       <c r="H15">
-        <v>7.195193255473212</v>
+        <v>7.142397313847507</v>
       </c>
       <c r="I15">
-        <v>3.410495854669971</v>
+        <v>3.257233023220928</v>
       </c>
       <c r="J15">
-        <v>13.08159895376975</v>
+        <v>11.3222936693875</v>
       </c>
       <c r="K15">
-        <v>19.35340882861711</v>
+        <v>16.87998512841785</v>
       </c>
       <c r="L15">
-        <v>6.605328531383911</v>
+        <v>12.90644244828249</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.08973320735056</v>
       </c>
       <c r="N15">
-        <v>6.701888415105054</v>
+        <v>6.655562986742458</v>
       </c>
       <c r="O15">
-        <v>15.07160655623209</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.896272675353528</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.13617380107581</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.89901579473208</v>
+        <v>25.87642094935786</v>
       </c>
       <c r="C16">
-        <v>17.79990879532042</v>
+        <v>18.51766314363184</v>
       </c>
       <c r="D16">
-        <v>7.085089420590246</v>
+        <v>7.00581994421275</v>
       </c>
       <c r="E16">
-        <v>7.610318416595788</v>
+        <v>7.66420711682006</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>41.22623585576621</v>
+        <v>36.55384552753081</v>
       </c>
       <c r="H16">
-        <v>7.06029699760539</v>
+        <v>6.990516951168938</v>
       </c>
       <c r="I16">
-        <v>3.5756177016728</v>
+        <v>3.393023594722877</v>
       </c>
       <c r="J16">
-        <v>13.04901336015826</v>
+        <v>11.81481286770517</v>
       </c>
       <c r="K16">
-        <v>19.40532641206304</v>
+        <v>17.19815840430683</v>
       </c>
       <c r="L16">
-        <v>6.457943176703171</v>
+        <v>13.166650722918</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.2749131293193</v>
       </c>
       <c r="N16">
-        <v>6.662156685209259</v>
+        <v>6.51968991517593</v>
       </c>
       <c r="O16">
-        <v>14.72480843311431</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.87208426817809</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.78859706446654</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.33915151718546</v>
+        <v>25.31202581279478</v>
       </c>
       <c r="C17">
-        <v>17.33128319227448</v>
+        <v>18.12586713812358</v>
       </c>
       <c r="D17">
-        <v>7.20030790433751</v>
+        <v>7.116220085312682</v>
       </c>
       <c r="E17">
-        <v>7.455829022667684</v>
+        <v>7.509027064010658</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.4480386682983</v>
+        <v>37.43393352158497</v>
       </c>
       <c r="H17">
-        <v>6.422987054143452</v>
+        <v>6.337137725336671</v>
       </c>
       <c r="I17">
-        <v>3.662712085103195</v>
+        <v>3.466598978449733</v>
       </c>
       <c r="J17">
-        <v>13.34247007903768</v>
+        <v>12.26582359878734</v>
       </c>
       <c r="K17">
-        <v>19.9999980291185</v>
+        <v>17.75708201500606</v>
       </c>
       <c r="L17">
-        <v>6.259693465901939</v>
+        <v>13.5965719008717</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.6753024412584</v>
       </c>
       <c r="N17">
-        <v>6.814556081682229</v>
+        <v>6.326422201199482</v>
       </c>
       <c r="O17">
-        <v>14.6459358292896</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.039773573554986</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.71429765960361</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.95830014442547</v>
+        <v>24.92701014534675</v>
       </c>
       <c r="C18">
-        <v>16.90722029349514</v>
+        <v>17.82016955830241</v>
       </c>
       <c r="D18">
-        <v>7.468211805484364</v>
+        <v>7.368902052603858</v>
       </c>
       <c r="E18">
-        <v>7.300652598849307</v>
+        <v>7.331200243633766</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>45.41671875295614</v>
+        <v>39.77370849413966</v>
       </c>
       <c r="H18">
-        <v>5.333304124259962</v>
+        <v>5.22782557958417</v>
       </c>
       <c r="I18">
-        <v>3.679797690923371</v>
+        <v>3.480139274662173</v>
       </c>
       <c r="J18">
-        <v>13.97604389237088</v>
+        <v>12.8538547538293</v>
       </c>
       <c r="K18">
-        <v>21.20261356243877</v>
+        <v>18.68712308595606</v>
       </c>
       <c r="L18">
-        <v>6.010989836050773</v>
+        <v>14.30379612639407</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.37239366552375</v>
       </c>
       <c r="N18">
-        <v>7.160136592832387</v>
+        <v>6.077627728521724</v>
       </c>
       <c r="O18">
-        <v>14.78705912228775</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.405250298222672</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.86757066880346</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.75389233562633</v>
+        <v>24.71933043554763</v>
       </c>
       <c r="C19">
-        <v>16.60311576328562</v>
+        <v>17.65960429415984</v>
       </c>
       <c r="D19">
-        <v>7.83990169580822</v>
+        <v>7.717866920419683</v>
       </c>
       <c r="E19">
-        <v>7.249337962636313</v>
+        <v>7.23401211392151</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>49.35053136769657</v>
+        <v>42.88919235158809</v>
       </c>
       <c r="H19">
-        <v>4.113802048749855</v>
+        <v>3.984845188985954</v>
       </c>
       <c r="I19">
-        <v>3.652276091964886</v>
+        <v>3.461046058886081</v>
       </c>
       <c r="J19">
-        <v>14.80343265646671</v>
+        <v>13.52148771783843</v>
       </c>
       <c r="K19">
-        <v>22.76744261013</v>
+        <v>19.83497039568707</v>
       </c>
       <c r="L19">
-        <v>5.770294821914455</v>
+        <v>15.17340193141225</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.24395765642788</v>
       </c>
       <c r="N19">
-        <v>7.655068185179801</v>
+        <v>5.830128020810336</v>
       </c>
       <c r="O19">
-        <v>15.09323631844477</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.922976313751342</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.19113130575115</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.06464904199356</v>
+        <v>25.02852871117546</v>
       </c>
       <c r="C20">
-        <v>16.5872094059852</v>
+        <v>17.85606172438655</v>
       </c>
       <c r="D20">
-        <v>8.48805628638916</v>
+        <v>8.32321775261949</v>
       </c>
       <c r="E20">
-        <v>7.472589048469776</v>
+        <v>7.355461560503174</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.07148537285723</v>
+        <v>48.27146703847836</v>
       </c>
       <c r="H20">
-        <v>2.936214076175412</v>
+        <v>2.804755736120987</v>
       </c>
       <c r="I20">
-        <v>3.470240097329231</v>
+        <v>3.314549110665945</v>
       </c>
       <c r="J20">
-        <v>16.20195796942906</v>
+        <v>14.42680163821257</v>
       </c>
       <c r="K20">
-        <v>25.39320696142164</v>
+        <v>21.62606630303867</v>
       </c>
       <c r="L20">
-        <v>5.564832973034348</v>
+        <v>16.48059753740193</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.66674011082981</v>
       </c>
       <c r="N20">
-        <v>8.520081628181467</v>
+        <v>5.599907908213855</v>
       </c>
       <c r="O20">
-        <v>15.83195568905056</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.818435738221304</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.96065311489644</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.53887622271072</v>
+        <v>26.50859134367275</v>
       </c>
       <c r="C21">
-        <v>17.59715531614824</v>
+        <v>18.78179750460902</v>
       </c>
       <c r="D21">
-        <v>8.76693259447997</v>
+        <v>8.588836408831847</v>
       </c>
       <c r="E21">
-        <v>7.658860078105293</v>
+        <v>7.493569226923091</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.91072609695704</v>
+        <v>51.23529008398305</v>
       </c>
       <c r="H21">
-        <v>2.528569465302017</v>
+        <v>2.457735832373839</v>
       </c>
       <c r="I21">
-        <v>3.149472049617805</v>
+        <v>3.057584545670576</v>
       </c>
       <c r="J21">
-        <v>16.71363884152608</v>
+        <v>13.54021089906501</v>
       </c>
       <c r="K21">
-        <v>26.18225000200514</v>
+        <v>21.53934781822494</v>
       </c>
       <c r="L21">
-        <v>5.726081218915746</v>
+        <v>16.25663087555285</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.8068039145041</v>
       </c>
       <c r="N21">
-        <v>8.863101133582992</v>
+        <v>5.73692442268705</v>
       </c>
       <c r="O21">
-        <v>16.62450745168874</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.137212860819218</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.75692738939254</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.47324960404364</v>
+        <v>27.4638120162385</v>
       </c>
       <c r="C22">
-        <v>18.22513247986699</v>
+        <v>19.33822986543185</v>
       </c>
       <c r="D22">
-        <v>8.922995629362552</v>
+        <v>8.739620551063677</v>
       </c>
       <c r="E22">
-        <v>7.767370284660055</v>
+        <v>7.576097986288574</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.58107116217557</v>
+        <v>53.1020206346908</v>
       </c>
       <c r="H22">
-        <v>2.278260785767075</v>
+        <v>2.246352964004692</v>
       </c>
       <c r="I22">
-        <v>2.935868057625622</v>
+        <v>2.882688090121363</v>
       </c>
       <c r="J22">
-        <v>17.0148152600143</v>
+        <v>12.89093654531738</v>
       </c>
       <c r="K22">
-        <v>26.63788476560674</v>
+        <v>21.41921006395376</v>
       </c>
       <c r="L22">
-        <v>5.839502903667467</v>
+        <v>16.06372975746909</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.85669694056047</v>
       </c>
       <c r="N22">
-        <v>9.042500818060892</v>
+        <v>5.835337905518821</v>
       </c>
       <c r="O22">
-        <v>17.10119829382928</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.298104784734825</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.23254365979621</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.97786994492711</v>
+        <v>26.95894339515506</v>
       </c>
       <c r="C23">
-        <v>17.86804882776367</v>
+        <v>19.04488780327898</v>
       </c>
       <c r="D23">
-        <v>8.843153917775663</v>
+        <v>8.660035765779481</v>
       </c>
       <c r="E23">
-        <v>7.7126484685843</v>
+        <v>7.534507693366767</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.82209620105542</v>
+        <v>52.11369637930376</v>
       </c>
       <c r="H23">
-        <v>2.40975982895426</v>
+        <v>2.355797885931247</v>
       </c>
       <c r="I23">
-        <v>3.037727557190014</v>
+        <v>2.960651341303525</v>
       </c>
       <c r="J23">
-        <v>16.88282343995526</v>
+        <v>13.39188829692145</v>
       </c>
       <c r="K23">
-        <v>26.45514272092145</v>
+        <v>21.58455811498948</v>
       </c>
       <c r="L23">
-        <v>5.778947086813078</v>
+        <v>16.24016638274322</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.90870561535052</v>
       </c>
       <c r="N23">
-        <v>8.943890020856173</v>
+        <v>5.784235366934529</v>
       </c>
       <c r="O23">
-        <v>16.84565708196051</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.21334320022433</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.97997071936676</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.03023393393554</v>
+        <v>24.99364703362694</v>
       </c>
       <c r="C24">
-        <v>16.50668932720409</v>
+        <v>17.79363672500785</v>
       </c>
       <c r="D24">
-        <v>8.532715085751498</v>
+        <v>8.364652449506197</v>
       </c>
       <c r="E24">
-        <v>7.498076503878927</v>
+        <v>7.372955525474293</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.68204898364283</v>
+        <v>48.76555817965716</v>
       </c>
       <c r="H24">
-        <v>2.917952002617799</v>
+        <v>2.787444736901702</v>
       </c>
       <c r="I24">
-        <v>3.450615874568642</v>
+        <v>3.292769187732029</v>
       </c>
       <c r="J24">
-        <v>16.33601196741566</v>
+        <v>14.54433303242847</v>
       </c>
       <c r="K24">
-        <v>25.66374169721826</v>
+        <v>21.83836629485094</v>
       </c>
       <c r="L24">
-        <v>5.54613367698654</v>
+        <v>16.64277880621376</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.82578208813672</v>
       </c>
       <c r="N24">
-        <v>8.569001713258867</v>
+        <v>5.579159599947622</v>
       </c>
       <c r="O24">
-        <v>15.85207675193916</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.870669410526318</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.98307347196323</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.76292354893266</v>
+        <v>22.71485944026674</v>
       </c>
       <c r="C25">
-        <v>14.93475842818167</v>
+        <v>16.06121215348906</v>
       </c>
       <c r="D25">
-        <v>8.193035046137554</v>
+        <v>8.06432099365529</v>
       </c>
       <c r="E25">
-        <v>7.260698055120892</v>
+        <v>7.18921389698081</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>53.18154312111124</v>
+        <v>46.26482834842553</v>
       </c>
       <c r="H25">
-        <v>3.483552365767516</v>
+        <v>3.290095754586678</v>
       </c>
       <c r="I25">
-        <v>3.912851152053572</v>
+        <v>3.686001687309835</v>
       </c>
       <c r="J25">
-        <v>15.74636636279081</v>
+        <v>14.2479066268158</v>
       </c>
       <c r="K25">
-        <v>24.80814905387052</v>
+        <v>21.53163776049561</v>
       </c>
       <c r="L25">
-        <v>5.286345203735473</v>
+        <v>16.63368439975536</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.33328740642757</v>
       </c>
       <c r="N25">
-        <v>8.151676486044611</v>
+        <v>5.329747237447574</v>
       </c>
       <c r="O25">
-        <v>14.71913001136091</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.448991019199807</v>
       </c>
       <c r="Q25">
+        <v>14.81931986151855</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
